--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -713,7 +713,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
@@ -902,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -984,25 +984,25 @@
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P4" t="n">
         <v>2.25</v>
@@ -1011,13 +1011,13 @@
         <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1026,13 +1026,13 @@
         <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z4" t="n">
         <v>7</v>
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.75</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.7</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1139,19 +1139,19 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P5" t="n">
         <v>2.25</v>
@@ -1166,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U5" t="n">
         <v>1.67</v>
@@ -1279,28 +1279,28 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J6" t="n">
         <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L6" t="n">
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.78</v>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
@@ -1437,19 +1437,19 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1464,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
@@ -1530,16 +1530,16 @@
         <v>51</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.13</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="8">
@@ -1574,13 +1574,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1592,16 +1592,16 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
         <v>2.4</v>
@@ -1613,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1628,7 +1628,7 @@
         <v>1.57</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
         <v>7</v>
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>81</v>
@@ -1673,7 +1673,7 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
         <v>3.8</v>
@@ -1735,19 +1735,19 @@
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P9" t="n">
         <v>2.25</v>
@@ -1762,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
         <v>5.25</v>
@@ -1901,7 +1901,7 @@
         <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
         <v>8</v>
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>2.75</v>
@@ -2518,16 +2518,16 @@
         <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>34</v>
@@ -2569,13 +2569,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
         <v>2.6</v>
@@ -2584,7 +2584,7 @@
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2623,16 +2623,16 @@
         <v>1.91</v>
       </c>
       <c r="Y15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z15" t="n">
         <v>9</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -2659,7 +2659,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
@@ -2668,7 +2668,7 @@
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
         <v>41</v>
@@ -2879,16 +2879,16 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L17" t="n">
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
         <v>1.53</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L18" t="n">
         <v>4.75</v>
@@ -3058,7 +3058,7 @@
         <v>1.14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
         <v>2.2</v>
@@ -3180,7 +3180,7 @@
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3207,7 +3207,7 @@
         <v>1.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -3348,7 +3348,7 @@
         <v>1.44</v>
       </c>
       <c r="U20" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V20" t="n">
         <v>3.4</v>
@@ -3912,7 +3912,7 @@
         <v>1.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V24" t="n">
         <v>2.75</v>
@@ -4595,7 +4595,7 @@
         <v>23</v>
       </c>
       <c r="O29" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P29" t="n">
         <v>7</v>
@@ -4607,10 +4607,10 @@
         <v>3.1</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U29" t="n">
         <v>1.22</v>
@@ -4619,10 +4619,10 @@
         <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -4730,13 +4730,13 @@
         <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
         <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4751,7 +4751,7 @@
         <v>2.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U30" t="n">
         <v>1.33</v>
@@ -4760,13 +4760,13 @@
         <v>3.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X30" t="n">
         <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
         <v>17</v>
@@ -4802,7 +4802,7 @@
         <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
         <v>9</v>
@@ -4871,13 +4871,13 @@
         <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
         <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
         <v>3.25</v>
@@ -4892,7 +4892,7 @@
         <v>3.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U31" t="n">
         <v>1.44</v>
@@ -4901,10 +4901,10 @@
         <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
@@ -4958,16 +4958,16 @@
         <v>34</v>
       </c>
       <c r="AP31" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="32">
@@ -5002,31 +5002,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
         <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -5041,7 +5041,7 @@
         <v>2.75</v>
       </c>
       <c r="T32" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U32" t="n">
         <v>1.36</v>
@@ -5050,16 +5050,16 @@
         <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="X32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA32" t="n">
         <v>8.5</v>
@@ -5143,7 +5143,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
@@ -5161,28 +5161,28 @@
         <v>2.3</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U33" t="n">
         <v>1.36</v>
@@ -5191,13 +5191,13 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="Y33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
         <v>23</v>
@@ -5212,7 +5212,7 @@
         <v>34</v>
       </c>
       <c r="AD33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="n">
         <v>12</v>
@@ -5230,7 +5230,7 @@
         <v>201</v>
       </c>
       <c r="AJ33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK33" t="n">
         <v>8.5</v>
@@ -5239,7 +5239,7 @@
         <v>8.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN33" t="n">
         <v>13</v>
@@ -5296,19 +5296,19 @@
         <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L34" t="n">
         <v>3.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
         <v>2.5</v>
@@ -5317,13 +5317,13 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U34" t="n">
         <v>1.57</v>
@@ -5335,7 +5335,7 @@
         <v>2.05</v>
       </c>
       <c r="X34" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y34" t="n">
         <v>6.5</v>
@@ -5447,13 +5447,13 @@
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
         <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -5462,13 +5462,13 @@
         <v>2.15</v>
       </c>
       <c r="R35" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U35" t="n">
         <v>1.44</v>
@@ -5477,10 +5477,10 @@
         <v>2.63</v>
       </c>
       <c r="W35" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X35" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y35" t="n">
         <v>6.5</v>
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J37" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="K37" t="n">
         <v>2.02</v>
@@ -5738,49 +5738,49 @@
         <v>1.4</v>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q37" t="n">
         <v>2.18</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T37" t="n">
         <v>1.23</v>
       </c>
       <c r="U37" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V37" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W37" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X37" t="n">
         <v>1.75</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA37" t="n">
         <v>14</v>
       </c>
       <c r="AB37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC37" t="n">
         <v>45</v>
       </c>
       <c r="AD37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE37" t="n">
         <v>6.2</v>
@@ -5795,19 +5795,19 @@
         <v>90</v>
       </c>
       <c r="AI37" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AK37" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AL37" t="n">
         <v>8.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN37" t="n">
         <v>17</v>
@@ -6041,10 +6041,10 @@
         <v>2.63</v>
       </c>
       <c r="W39" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X39" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y39" t="n">
         <v>7.5</v>
@@ -6134,19 +6134,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L40" t="n">
         <v>3.2</v>
@@ -6155,64 +6155,64 @@
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O40" t="n">
         <v>1.28</v>
       </c>
       <c r="P40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S40" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U40" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V40" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="W40" t="n">
         <v>1.65</v>
       </c>
       <c r="X40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="n">
         <v>26</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF40" t="n">
         <v>6.2</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
         <v>50</v>
@@ -6230,13 +6230,13 @@
         <v>9.5</v>
       </c>
       <c r="AM40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN40" t="n">
         <v>21</v>
       </c>
       <c r="AO40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6293,13 +6293,13 @@
         <v>2.05</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P41" t="n">
         <v>5.5</v>
@@ -6314,7 +6314,7 @@
         <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U41" t="n">
         <v>1.25</v>
@@ -6434,13 +6434,13 @@
         <v>3.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
         <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -6455,7 +6455,7 @@
         <v>2.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U42" t="n">
         <v>1.36</v>
@@ -6557,13 +6557,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
         <v>3.4</v>
@@ -6572,16 +6572,16 @@
         <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P43" t="n">
         <v>3.4</v>
@@ -6596,7 +6596,7 @@
         <v>3.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U43" t="n">
         <v>1.4</v>
@@ -6605,25 +6605,25 @@
         <v>2.75</v>
       </c>
       <c r="W43" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z43" t="n">
         <v>13</v>
       </c>
       <c r="AA43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD43" t="n">
         <v>29</v>
@@ -6641,7 +6641,7 @@
         <v>51</v>
       </c>
       <c r="AI43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ43" t="n">
         <v>8.5</v>
@@ -6716,13 +6716,13 @@
         <v>6.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
         <v>3.75</v>
@@ -6737,7 +6737,7 @@
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U44" t="n">
         <v>1.36</v>
@@ -6839,16 +6839,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
@@ -6857,13 +6857,13 @@
         <v>3.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P45" t="n">
         <v>3.4</v>
@@ -6878,7 +6878,7 @@
         <v>3.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U45" t="n">
         <v>1.44</v>
@@ -6893,7 +6893,7 @@
         <v>1.91</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z45" t="n">
         <v>12</v>
@@ -6902,7 +6902,7 @@
         <v>10</v>
       </c>
       <c r="AB45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
         <v>21</v>
@@ -6932,13 +6932,13 @@
         <v>13</v>
       </c>
       <c r="AL45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO45" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -713,7 +713,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -740,10 +740,10 @@
         <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y2" t="n">
         <v>6.5</v>
@@ -764,7 +764,7 @@
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -779,7 +779,7 @@
         <v>301</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
@@ -854,7 +854,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -987,22 +987,22 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>2.25</v>
@@ -1011,13 +1011,13 @@
         <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
         <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
         <v>2.2</v>
@@ -1217,13 +1217,13 @@
         <v>6.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
         <v>12</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
@@ -1288,19 +1288,19 @@
         <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1309,13 +1309,13 @@
         <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
         <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="U6" t="n">
         <v>1.78</v>
@@ -1437,19 +1437,19 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1458,13 +1458,13 @@
         <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
@@ -1592,28 +1592,28 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
         <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1723,58 +1723,58 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
         <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
         <v>2.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
         <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y9" t="n">
         <v>5.5</v>
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
         <v>23</v>
@@ -1868,19 +1868,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
         <v>6.5</v>
@@ -1889,31 +1889,31 @@
         <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.73</v>
       </c>
-      <c r="P10" t="n">
+      <c r="V10" t="n">
         <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.05</v>
       </c>
       <c r="W10" t="n">
         <v>2.75</v>
@@ -1922,7 +1922,7 @@
         <v>1.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Z10" t="n">
         <v>7</v>
@@ -1940,16 +1940,16 @@
         <v>51</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AF10" t="n">
         <v>6.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
@@ -1970,7 +1970,7 @@
         <v>51</v>
       </c>
       <c r="AO10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2742,16 +2742,16 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
         <v>3.4</v>
@@ -2879,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L17" t="n">
         <v>3.25</v>
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L18" t="n">
         <v>4.75</v>
@@ -3180,7 +3180,7 @@
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3195,10 +3195,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>2.75</v>
@@ -3306,28 +3306,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>2.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
@@ -3348,10 +3348,10 @@
         <v>1.44</v>
       </c>
       <c r="U20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W20" t="n">
         <v>1.73</v>
@@ -4583,7 +4583,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L29" t="n">
         <v>4.75</v>
@@ -4619,10 +4619,10 @@
         <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -4760,7 +4760,7 @@
         <v>3.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
         <v>2.2</v>
@@ -4901,10 +4901,10 @@
         <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
@@ -4967,7 +4967,7 @@
         <v>1.63</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="32">
@@ -5023,25 +5023,25 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U32" t="n">
         <v>1.36</v>
@@ -5050,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X32" t="n">
         <v>2.1</v>
@@ -5191,10 +5191,10 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y33" t="n">
         <v>12</v>
@@ -5317,7 +5317,7 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5335,7 +5335,7 @@
         <v>2.05</v>
       </c>
       <c r="X34" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y34" t="n">
         <v>6.5</v>
@@ -5462,7 +5462,7 @@
         <v>2.15</v>
       </c>
       <c r="R35" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
@@ -5477,10 +5477,10 @@
         <v>2.63</v>
       </c>
       <c r="W35" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X35" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y35" t="n">
         <v>6.5</v>
@@ -5711,109 +5711,109 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="J37" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K37" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L37" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="Q37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W37" t="n">
         <v>2.18</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.98</v>
-      </c>
       <c r="X37" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="Z37" t="n">
         <v>23</v>
       </c>
       <c r="AA37" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB37" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AC37" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AD37" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AF37" t="n">
         <v>6.2</v>
       </c>
       <c r="AG37" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AH37" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AI37" t="n">
         <v>900</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="AK37" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AL37" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO37" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5852,22 +5852,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H38" t="n">
         <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K38" t="n">
         <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -5876,28 +5876,28 @@
         <v>6.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R38" t="n">
         <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V38" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="W38" t="n">
         <v>1.8</v>
@@ -5906,19 +5906,19 @@
         <v>1.9</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="n">
         <v>30</v>
@@ -5927,7 +5927,7 @@
         <v>6.6</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG38" t="n">
         <v>14</v>
@@ -5939,19 +5939,19 @@
         <v>600</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK38" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO38" t="n">
         <v>37</v>
@@ -6041,10 +6041,10 @@
         <v>2.63</v>
       </c>
       <c r="W39" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X39" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y39" t="n">
         <v>7.5</v>
@@ -6293,13 +6293,13 @@
         <v>2.05</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P41" t="n">
         <v>5.5</v>
@@ -6314,7 +6314,7 @@
         <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U41" t="n">
         <v>1.25</v>
@@ -6434,13 +6434,13 @@
         <v>3.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
         <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -6455,7 +6455,7 @@
         <v>2.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U42" t="n">
         <v>1.36</v>
@@ -6575,13 +6575,13 @@
         <v>3.2</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
         <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
         <v>3.4</v>
@@ -6596,7 +6596,7 @@
         <v>3.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U43" t="n">
         <v>1.4</v>
@@ -6716,13 +6716,13 @@
         <v>6.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
         <v>3.75</v>
@@ -6737,7 +6737,7 @@
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U44" t="n">
         <v>1.36</v>
@@ -6857,13 +6857,13 @@
         <v>3.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
         <v>3.4</v>
@@ -6878,7 +6878,7 @@
         <v>3.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U45" t="n">
         <v>1.44</v>
@@ -6887,10 +6887,10 @@
         <v>2.63</v>
       </c>
       <c r="W45" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X45" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -6980,19 +6980,19 @@
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I46" t="n">
         <v>2.62</v>
       </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.65</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K46" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="L46" t="n">
         <v>3.25</v>
@@ -7000,70 +7000,70 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="T46" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="U46" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="V46" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="W46" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="X46" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="Z46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD46" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AE46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>800</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>7.3</v>
       </c>
       <c r="AK46" t="n">
         <v>12.5</v>
@@ -7075,7 +7075,7 @@
         <v>30</v>
       </c>
       <c r="AN46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO46" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -854,7 +854,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -1306,22 +1306,22 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
         <v>2.5</v>
@@ -1868,61 +1868,61 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
         <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L10" t="n">
         <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
         <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Z10" t="n">
         <v>7</v>
@@ -1940,16 +1940,16 @@
         <v>51</v>
       </c>
       <c r="AE10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF10" t="n">
         <v>6.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
@@ -1970,7 +1970,7 @@
         <v>51</v>
       </c>
       <c r="AO10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2033,10 +2033,10 @@
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
         <v>3.1</v>
@@ -2063,13 +2063,13 @@
         <v>1.44</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -2087,7 +2087,7 @@
         <v>6.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>101</v>
@@ -2291,42 +2291,42 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
         <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="T13" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="U13" t="n">
         <v>1.43</v>
@@ -2335,61 +2335,61 @@
         <v>2.65</v>
       </c>
       <c r="W13" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM13" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2428,16 +2428,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2458,22 +2458,22 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W14" t="n">
         <v>1.73</v>
@@ -2494,7 +2494,7 @@
         <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>26</v>
@@ -2515,13 +2515,13 @@
         <v>201</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
         <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -2885,10 +2885,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.53</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -3183,28 +3183,28 @@
         <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U19" t="n">
         <v>1.36</v>
@@ -3213,13 +3213,13 @@
         <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
         <v>17</v>
@@ -3255,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL19" t="n">
         <v>9</v>
@@ -3588,85 +3588,85 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="K22" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="L22" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S22" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="T22" t="n">
         <v>1.11</v>
       </c>
       <c r="U22" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="X22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AA22" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD22" t="n">
         <v>55</v>
       </c>
       <c r="AE22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AF22" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH22" t="n">
         <v>175</v>
@@ -3675,22 +3675,22 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="n">
         <v>65</v>
       </c>
-      <c r="AN22" t="n">
-        <v>55</v>
-      </c>
       <c r="AO22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3729,85 +3729,85 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="U23" t="n">
         <v>1.5</v>
       </c>
       <c r="V23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W23" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="X23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="n">
         <v>90</v>
       </c>
       <c r="AE23" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>150</v>
@@ -3816,19 +3816,19 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AK23" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AL23" t="n">
         <v>8.75</v>
       </c>
       <c r="AM23" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO23" t="n">
         <v>45</v>
@@ -4041,10 +4041,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
         <v>3.75</v>
@@ -4447,7 +4447,7 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
         <v>1.18</v>
@@ -4468,10 +4468,10 @@
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W28" t="n">
         <v>1.83</v>
@@ -4489,13 +4489,13 @@
         <v>8.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -4528,13 +4528,13 @@
         <v>51</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4583,7 +4583,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L29" t="n">
         <v>4.75</v>
@@ -4592,7 +4592,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O29" t="n">
         <v>1.1</v>
@@ -4613,10 +4613,10 @@
         <v>1.83</v>
       </c>
       <c r="U29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W29" t="n">
         <v>1.44</v>
@@ -4655,7 +4655,7 @@
         <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
@@ -4664,7 +4664,7 @@
         <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
         <v>51</v>
@@ -4742,16 +4742,16 @@
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U30" t="n">
         <v>1.33</v>
@@ -4802,7 +4802,7 @@
         <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>9</v>
@@ -4811,7 +4811,7 @@
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -4853,22 +4853,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4940,7 +4940,7 @@
         <v>251</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -4967,7 +4967,7 @@
         <v>1.63</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="32">
@@ -5026,22 +5026,22 @@
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U32" t="n">
         <v>1.36</v>
@@ -5143,67 +5143,67 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
         <v>1.75</v>
       </c>
       <c r="J33" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X33" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y33" t="n">
         <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
         <v>41</v>
@@ -5215,22 +5215,22 @@
         <v>41</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
         <v>7.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
       </c>
       <c r="AI33" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK33" t="n">
         <v>8.5</v>
@@ -5242,10 +5242,10 @@
         <v>13</v>
       </c>
       <c r="AN33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5314,10 +5314,10 @@
         <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5391,10 +5391,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="35">
@@ -6011,10 +6011,10 @@
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
         <v>1.3</v>
@@ -6023,10 +6023,10 @@
         <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
         <v>3.5</v>
@@ -6275,22 +6275,22 @@
         </is>
       </c>
       <c r="G41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J41" t="n">
         <v>4.75</v>
       </c>
-      <c r="H41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
       <c r="K41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -6323,10 +6323,10 @@
         <v>3.75</v>
       </c>
       <c r="W41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X41" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -6344,16 +6344,16 @@
         <v>34</v>
       </c>
       <c r="AD41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
         <v>41</v>
@@ -6362,10 +6362,10 @@
         <v>126</v>
       </c>
       <c r="AJ41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK41" t="n">
         <v>10</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>9.5</v>
       </c>
       <c r="AL41" t="n">
         <v>8.5</v>
@@ -6374,7 +6374,7 @@
         <v>13</v>
       </c>
       <c r="AN41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO41" t="n">
         <v>19</v>
@@ -6425,10 +6425,10 @@
         <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L42" t="n">
         <v>3.5</v>
@@ -6506,7 +6506,7 @@
         <v>11</v>
       </c>
       <c r="AK42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL42" t="n">
         <v>11</v>
@@ -6572,13 +6572,13 @@
         <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
@@ -6599,10 +6599,10 @@
         <v>1.29</v>
       </c>
       <c r="U43" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W43" t="n">
         <v>1.8</v>
@@ -6653,7 +6653,7 @@
         <v>10</v>
       </c>
       <c r="AM43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN43" t="n">
         <v>21</v>
@@ -6716,10 +6716,10 @@
         <v>6.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
         <v>1.25</v>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H45" t="n">
         <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J45" t="n">
         <v>3.2</v>
@@ -6863,37 +6863,37 @@
         <v>10</v>
       </c>
       <c r="O45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T45" t="n">
         <v>1.3</v>
       </c>
-      <c r="P45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.29</v>
-      </c>
       <c r="U45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V45" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W45" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="X45" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Y45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
         <v>12</v>
@@ -6911,22 +6911,22 @@
         <v>29</v>
       </c>
       <c r="AE45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF45" t="n">
         <v>6.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK45" t="n">
         <v>13</v>
@@ -6938,10 +6938,10 @@
         <v>29</v>
       </c>
       <c r="AN45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -746,22 +746,22 @@
         <v>1.91</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -779,22 +779,22 @@
         <v>301</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AL2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM2" t="n">
         <v>15</v>
       </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
       <c r="AN2" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -869,16 +869,16 @@
         <v>3.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="V3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W3" t="n">
         <v>1.75</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -920,7 +920,7 @@
         <v>201</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -929,10 +929,10 @@
         <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO3" t="n">
         <v>51</v>
@@ -1294,16 +1294,16 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1381,7 +1381,7 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.13</v>
@@ -1530,16 +1530,16 @@
         <v>51</v>
       </c>
       <c r="AP7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8">
@@ -1868,109 +1868,109 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.88</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L10" t="n">
         <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
         <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AF10" t="n">
         <v>6.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
         <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2294,39 +2294,39 @@
         <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="U13" t="n">
         <v>1.43</v>
@@ -2335,16 +2335,16 @@
         <v>2.65</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
         <v>14.5</v>
@@ -2353,43 +2353,43 @@
         <v>75</v>
       </c>
       <c r="AC13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AK13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -2437,7 +2437,7 @@
         <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2470,10 +2470,10 @@
         <v>1.36</v>
       </c>
       <c r="U14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W14" t="n">
         <v>1.73</v>
@@ -2494,7 +2494,7 @@
         <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
         <v>26</v>
@@ -2515,7 +2515,7 @@
         <v>201</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>19</v>
@@ -3016,28 +3016,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>1.53</v>
@@ -3073,16 +3073,16 @@
         <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
         <v>10</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
@@ -3103,19 +3103,19 @@
         <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
         <v>51</v>
@@ -3127,10 +3127,10 @@
         <v>1.2</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="19">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
@@ -3195,28 +3195,28 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3237,22 +3237,22 @@
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>6.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK19" t="n">
         <v>11</v>
@@ -3267,7 +3267,7 @@
         <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -3603,13 +3603,13 @@
         <v>1.75</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="O22" t="n">
         <v>1.7</v>
@@ -3624,7 +3624,7 @@
         <v>1.34</v>
       </c>
       <c r="S22" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T22" t="n">
         <v>1.11</v>
@@ -3636,13 +3636,13 @@
         <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
         <v>8.75</v>
@@ -3651,22 +3651,22 @@
         <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD22" t="n">
         <v>55</v>
       </c>
       <c r="AE22" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AF22" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
         <v>175</v>
@@ -3675,22 +3675,22 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AM22" t="n">
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3894,16 +3894,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
         <v>3.4</v>
@@ -4152,96 +4152,96 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
         <v>2.42</v>
       </c>
       <c r="K26" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L26" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S26" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V26" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="X26" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB26" t="n">
         <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE26" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
         <v>55</v>
@@ -4250,7 +4250,7 @@
         <v>35</v>
       </c>
       <c r="AO26" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4447,7 +4447,7 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O28" t="n">
         <v>1.18</v>
@@ -4531,10 +4531,10 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4601,10 +4601,10 @@
         <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S29" t="n">
         <v>1.83</v>
@@ -4742,16 +4742,16 @@
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U30" t="n">
         <v>1.33</v>
@@ -4802,7 +4802,7 @@
         <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
         <v>9</v>
@@ -4811,7 +4811,7 @@
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -4853,22 +4853,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4901,10 +4901,10 @@
         <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
@@ -4940,7 +4940,7 @@
         <v>251</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -5008,40 +5008,40 @@
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
         <v>2.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U32" t="n">
         <v>1.36</v>
@@ -5050,16 +5050,16 @@
         <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA32" t="n">
         <v>8.5</v>
@@ -5074,7 +5074,7 @@
         <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
@@ -5086,10 +5086,10 @@
         <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
         <v>21</v>
@@ -5284,28 +5284,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5332,10 +5332,10 @@
         <v>2.25</v>
       </c>
       <c r="W34" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X34" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y34" t="n">
         <v>6.5</v>
@@ -5356,13 +5356,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
         <v>6</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH34" t="n">
         <v>67</v>
@@ -5391,10 +5391,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="35">
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
@@ -6035,10 +6035,10 @@
         <v>1.29</v>
       </c>
       <c r="U39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W39" t="n">
         <v>1.8</v>
@@ -6056,7 +6056,7 @@
         <v>9</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>17</v>
@@ -6065,7 +6065,7 @@
         <v>29</v>
       </c>
       <c r="AE39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF39" t="n">
         <v>6.5</v>
@@ -6086,7 +6086,7 @@
         <v>17</v>
       </c>
       <c r="AL39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM39" t="n">
         <v>41</v>
@@ -6095,7 +6095,7 @@
         <v>29</v>
       </c>
       <c r="AO39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6275,22 +6275,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J41" t="n">
         <v>4.33</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.75</v>
       </c>
       <c r="K41" t="n">
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -6311,10 +6311,10 @@
         <v>2.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U41" t="n">
         <v>1.25</v>
@@ -6323,25 +6323,25 @@
         <v>3.75</v>
       </c>
       <c r="W41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="n">
         <v>29</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>34</v>
       </c>
       <c r="AD41" t="n">
         <v>29</v>
@@ -6350,28 +6350,28 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG41" t="n">
         <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI41" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="n">
         <v>11</v>
       </c>
       <c r="AK41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL41" t="n">
         <v>8.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN41" t="n">
         <v>12</v>
@@ -6416,28 +6416,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
       </c>
       <c r="I42" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J42" t="n">
         <v>3</v>
       </c>
-      <c r="J42" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O42" t="n">
         <v>1.22</v>
@@ -6446,10 +6446,10 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>2.75</v>
@@ -6473,19 +6473,19 @@
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
         <v>9.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE42" t="n">
         <v>12</v>
@@ -6506,7 +6506,7 @@
         <v>11</v>
       </c>
       <c r="AK42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL42" t="n">
         <v>11</v>
@@ -6515,7 +6515,7 @@
         <v>29</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO42" t="n">
         <v>29</v>
@@ -6716,10 +6716,10 @@
         <v>6.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
         <v>1.25</v>
@@ -6728,10 +6728,10 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
         <v>3</v>
@@ -6980,19 +6980,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I46" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
         <v>3.25</v>
@@ -7000,58 +7000,58 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S46" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T46" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U46" t="n">
         <v>1.42</v>
       </c>
       <c r="V46" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="W46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X46" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Z46" t="n">
         <v>12.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD46" t="n">
         <v>35</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF46" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG46" t="n">
         <v>14.5</v>
@@ -7063,7 +7063,7 @@
         <v>700</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK46" t="n">
         <v>12.5</v>
@@ -7078,7 +7078,7 @@
         <v>24</v>
       </c>
       <c r="AO46" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -746,22 +746,22 @@
         <v>1.91</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB2" t="n">
         <v>15</v>
       </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
       <c r="AC2" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -779,22 +779,22 @@
         <v>301</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -863,10 +863,10 @@
         <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.73</v>
@@ -890,7 +890,7 @@
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -917,7 +917,7 @@
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -926,7 +926,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>151</v>
@@ -2154,48 +2154,48 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V12" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="W12" t="n">
         <v>1.78</v>
@@ -2204,28 +2204,28 @@
         <v>1.83</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG12" t="n">
         <v>14.5</v>
@@ -2237,22 +2237,22 @@
         <v>600</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2458,16 +2458,16 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U14" t="n">
         <v>1.4</v>
@@ -3016,22 +3016,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.13</v>
@@ -3070,16 +3070,16 @@
         <v>1.57</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
         <v>23</v>
@@ -3103,22 +3103,22 @@
         <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="n">
         <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="n">
         <v>4.4</v>
@@ -4712,16 +4712,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
         <v>2.25</v>
@@ -4772,7 +4772,7 @@
         <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
@@ -4799,7 +4799,7 @@
         <v>151</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK30" t="n">
         <v>11</v>
@@ -4808,10 +4808,10 @@
         <v>9</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -4961,13 +4961,13 @@
         <v>3.2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AR31" t="n">
         <v>1.63</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="32">
@@ -5032,10 +5032,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S32" t="n">
         <v>3.25</v>
@@ -5284,28 +5284,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5338,16 +5338,16 @@
         <v>1.67</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA34" t="n">
         <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
         <v>23</v>
@@ -5371,19 +5371,19 @@
         <v>501</v>
       </c>
       <c r="AJ34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL34" t="n">
         <v>13</v>
       </c>
-      <c r="AL34" t="n">
-        <v>12</v>
-      </c>
       <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
         <v>34</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>29</v>
       </c>
       <c r="AO34" t="n">
         <v>41</v>
@@ -5711,28 +5711,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J37" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K37" t="n">
         <v>1.95</v>
       </c>
       <c r="L37" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M37" t="n">
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.5</v>
@@ -5747,7 +5747,7 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="T37" t="n">
         <v>1.18</v>
@@ -5759,7 +5759,7 @@
         <v>2.35</v>
       </c>
       <c r="W37" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="X37" t="n">
         <v>1.62</v>
@@ -5768,10 +5768,10 @@
         <v>9.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB37" t="n">
         <v>90</v>
@@ -5780,10 +5780,10 @@
         <v>60</v>
       </c>
       <c r="AD37" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF37" t="n">
         <v>6.2</v>
@@ -5792,16 +5792,16 @@
         <v>20</v>
       </c>
       <c r="AH37" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI37" t="n">
         <v>900</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AK37" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AL37" t="n">
         <v>8.75</v>
@@ -5810,7 +5810,7 @@
         <v>15</v>
       </c>
       <c r="AN37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO37" t="n">
         <v>40</v>
@@ -5852,16 +5852,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K38" t="n">
         <v>2.07</v>
@@ -5873,13 +5873,13 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q38" t="n">
         <v>2.05</v>
@@ -5888,7 +5888,7 @@
         <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T38" t="n">
         <v>1.26</v>
@@ -5900,22 +5900,22 @@
         <v>2.67</v>
       </c>
       <c r="W38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Y38" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="Z38" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
         <v>19</v>
@@ -5924,10 +5924,10 @@
         <v>30</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG38" t="n">
         <v>14</v>
@@ -5939,19 +5939,19 @@
         <v>600</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK38" t="n">
         <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM38" t="n">
         <v>45</v>
       </c>
       <c r="AN38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO38" t="n">
         <v>37</v>
@@ -6857,10 +6857,10 @@
         <v>3.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
         <v>1.29</v>
@@ -6983,10 +6983,10 @@
         <v>2.62</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="J46" t="n">
         <v>3.2</v>
@@ -7024,19 +7024,19 @@
         <v>2.45</v>
       </c>
       <c r="W46" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X46" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z46" t="n">
         <v>12.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB46" t="n">
         <v>30</v>
@@ -7048,10 +7048,10 @@
         <v>35</v>
       </c>
       <c r="AE46" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF46" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG46" t="n">
         <v>14.5</v>
@@ -7066,13 +7066,13 @@
         <v>7.6</v>
       </c>
       <c r="AK46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL46" t="n">
         <v>10</v>
       </c>
       <c r="AM46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN46" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>1.53</v>
@@ -854,7 +854,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -863,10 +863,10 @@
         <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.73</v>
@@ -875,10 +875,10 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.75</v>
@@ -890,7 +890,7 @@
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -917,7 +917,7 @@
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -926,7 +926,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>151</v>
@@ -984,7 +984,7 @@
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.63</v>
@@ -993,7 +993,7 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1026,13 +1026,13 @@
         <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
         <v>7</v>
@@ -2452,16 +2452,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
         <v>3.25</v>
@@ -2867,13 +2867,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2882,7 +2882,7 @@
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2891,16 +2891,16 @@
         <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
         <v>5.5</v>
@@ -2978,10 +2978,10 @@
         <v>1.21</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="18">
@@ -3016,22 +3016,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.13</v>
@@ -3070,16 +3070,16 @@
         <v>1.57</v>
       </c>
       <c r="Y18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA18" t="n">
         <v>10</v>
       </c>
-      <c r="AA18" t="n">
-        <v>11</v>
-      </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
         <v>23</v>
@@ -3103,22 +3103,22 @@
         <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
         <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP18" t="n">
         <v>4.4</v>
@@ -3195,16 +3195,16 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U19" t="n">
         <v>1.4</v>
@@ -3324,10 +3324,10 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
@@ -3447,109 +3447,109 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X21" t="n">
         <v>1.62</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Y21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="AA21" t="n">
         <v>8.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
         <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AI21" t="n">
         <v>101</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AK21" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AO21" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -4011,19 +4011,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
         <v>3.75</v>
@@ -4068,7 +4068,7 @@
         <v>7.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>9.5</v>
@@ -4095,10 +4095,10 @@
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4152,22 +4152,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
         <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K26" t="n">
         <v>2.18</v>
       </c>
       <c r="L26" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -4175,7 +4175,7 @@
         <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q26" t="n">
         <v>1.88</v>
@@ -4205,7 +4205,7 @@
         <v>6.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
@@ -4214,7 +4214,7 @@
         <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
         <v>28</v>
@@ -4223,10 +4223,10 @@
         <v>9.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
         <v>75</v>
@@ -4235,7 +4235,7 @@
         <v>600</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK26" t="n">
         <v>19.5</v>
@@ -4429,7 +4429,7 @@
         <v>1.36</v>
       </c>
       <c r="H28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
         <v>7</v>
@@ -4438,19 +4438,19 @@
         <v>1.83</v>
       </c>
       <c r="K28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L28" t="n">
         <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
         <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P28" t="n">
         <v>4.5</v>
@@ -4465,13 +4465,13 @@
         <v>2.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W28" t="n">
         <v>1.83</v>
@@ -4486,7 +4486,7 @@
         <v>7</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="n">
         <v>9</v>
@@ -4495,13 +4495,13 @@
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>19</v>
@@ -4528,7 +4528,7 @@
         <v>51</v>
       </c>
       <c r="AO28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="n">
         <v>2</v>
@@ -4542,138 +4542,138 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nsdQpfc6</t>
+          <t>bNEvhasA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>16/02/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R29" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB29" t="n">
         <v>26</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
         <v>7</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI29" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4683,138 +4683,138 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>r9kZrYRI</t>
+          <t>2eLVgLCc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>16/02/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>UNAM Pumas</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.6</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.1</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.75</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N30" t="n">
-        <v>13</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3.25</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X30" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC30" t="n">
         <v>17</v>
       </c>
-      <c r="AA30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>23</v>
-      </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
       </c>
       <c r="AH30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM30" t="n">
         <v>41</v>
       </c>
-      <c r="AI30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>19</v>
-      </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4824,7 +4824,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AiJT4u9K</t>
+          <t>nsdQpfc6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4834,146 +4834,138 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Alianza Huanuco</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
         <v>2.75</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>26</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R31" t="n">
         <v>3.4</v>
       </c>
-      <c r="K31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N31" t="n">
-        <v>8</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S31" t="n">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="T31" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="V31" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X31" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC31" t="n">
         <v>11</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AD31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE31" t="n">
         <v>29</v>
       </c>
-      <c r="AC31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>8</v>
-      </c>
       <c r="AF31" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM31" t="n">
         <v>51</v>
       </c>
-      <c r="AI31" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM31" t="n">
+      <c r="AN31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO31" t="n">
         <v>26</v>
       </c>
-      <c r="AN31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CfEYK4uC</t>
+          <t>r9kZrYRI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4983,101 +4975,101 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.75</v>
       </c>
-      <c r="J32" t="n">
-        <v>2.6</v>
-      </c>
       <c r="K32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X32" t="n">
         <v>2.2</v>
       </c>
-      <c r="L32" t="n">
-        <v>4</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>11</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X32" t="n">
-        <v>2.05</v>
-      </c>
       <c r="Y32" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
@@ -5086,25 +5078,25 @@
         <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AL32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AM32" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AO32" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5114,7 +5106,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4tiPjAW9</t>
+          <t>AiJT4u9K</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5124,138 +5116,146 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Alianza Huanuco</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.33</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA33" t="n">
         <v>11</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>15</v>
-      </c>
       <c r="AB33" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD33" t="n">
         <v>34</v>
       </c>
-      <c r="AD33" t="n">
-        <v>41</v>
-      </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
       </c>
       <c r="AI33" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ33" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AL33" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AM33" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AN33" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AO33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>U5iPoHmT</t>
+          <t>CfEYK4uC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5265,116 +5265,116 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L34" t="n">
         <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="U34" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="V34" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="X34" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="Y34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
         <v>9.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK34" t="n">
         <v>21</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>501</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>15</v>
       </c>
       <c r="AL34" t="n">
         <v>13</v>
@@ -5383,24 +5383,20 @@
         <v>41</v>
       </c>
       <c r="AN34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO34" t="n">
         <v>34</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>41</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uuru5Rzo</t>
+          <t>4tiPjAW9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5415,123 +5411,123 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4.33</v>
       </c>
       <c r="H35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P35" t="n">
         <v>3.5</v>
       </c>
-      <c r="I35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="Q35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V35" t="n">
         <v>2.75</v>
       </c>
-      <c r="K35" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>10</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.63</v>
-      </c>
       <c r="W35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG35" t="n">
         <v>17</v>
       </c>
-      <c r="AC35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AH35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>7</v>
       </c>
-      <c r="AG35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ35" t="n">
+      <c r="AK35" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK35" t="n">
-        <v>17</v>
-      </c>
       <c r="AL35" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AN35" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5541,7 +5537,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0YkGkTTs</t>
+          <t>U5iPoHmT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5551,138 +5547,142 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="L36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S36" t="n">
         <v>5</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T36" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="U36" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="V36" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="W36" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="X36" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AD36" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH36" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AI36" t="n">
-        <v>900</v>
+        <v>501</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AK36" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AL36" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AM36" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GSzHgxVF</t>
+          <t>Uuru5Rzo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5692,128 +5692,128 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.55</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P37" t="n">
         <v>3</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.42</v>
-      </c>
       <c r="Q37" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="U37" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="V37" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="W37" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="X37" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.25</v>
+        <v>6.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AA37" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AB37" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AE37" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AF37" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AG37" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="AK37" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AM37" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AO37" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5823,7 +5823,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>O8vhBp9j</t>
+          <t>0YkGkTTs</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5833,128 +5833,128 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.27</v>
+        <v>1.65</v>
       </c>
       <c r="H38" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="J38" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="K38" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="L38" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P38" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S38" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U38" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="V38" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="X38" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="Y38" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Z38" t="n">
         <v>7.3</v>
       </c>
-      <c r="Z38" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AA38" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
         <v>30</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AF38" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AI38" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AL38" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AM38" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AO38" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5964,7 +5964,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KYdcIUPE</t>
+          <t>GSzHgxVF</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5974,128 +5974,128 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>4.55</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.5</v>
+        <v>1.82</v>
       </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>5.2</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.03</v>
+        <v>2.42</v>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="U39" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="V39" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="W39" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="X39" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="Y39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AK39" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG39" t="n">
+      <c r="AL39" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM39" t="n">
         <v>15</v>
       </c>
-      <c r="AH39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>41</v>
-      </c>
       <c r="AN39" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6105,7 +6105,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hCOb5BfS</t>
+          <t>O8vhBp9j</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6115,128 +6115,128 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.62</v>
+        <v>2.27</v>
       </c>
       <c r="H40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I40" t="n">
         <v>3.2</v>
       </c>
-      <c r="I40" t="n">
-        <v>2.57</v>
-      </c>
       <c r="J40" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="K40" t="n">
         <v>2.07</v>
       </c>
       <c r="L40" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.3</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z40" t="n">
-        <v>14.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD40" t="n">
         <v>30</v>
       </c>
-      <c r="AC40" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>26</v>
-      </c>
       <c r="AE40" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AI40" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK40" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM40" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AN40" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AO40" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dM8ksUho</t>
+          <t>KYdcIUPE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6256,128 +6256,128 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L41" t="n">
         <v>4</v>
       </c>
-      <c r="H41" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.25</v>
-      </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.48</v>
+        <v>2.03</v>
       </c>
       <c r="R41" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="S41" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="U41" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="V41" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="W41" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X41" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="Y41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB41" t="n">
         <v>17</v>
       </c>
-      <c r="Z41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>41</v>
-      </c>
       <c r="AC41" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AD41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE41" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AJ41" t="n">
         <v>11</v>
       </c>
       <c r="AK41" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AM41" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AO41" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6387,7 +6387,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ek3ub7AF</t>
+          <t>hCOb5BfS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6397,119 +6397,119 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="J42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S42" t="n">
         <v>3</v>
       </c>
-      <c r="K42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.75</v>
-      </c>
       <c r="T42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U42" t="n">
         <v>1.4</v>
       </c>
-      <c r="U42" t="n">
-        <v>1.36</v>
-      </c>
       <c r="V42" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="W42" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X42" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA42" t="n">
         <v>9.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD42" t="n">
         <v>26</v>
       </c>
       <c r="AE42" t="n">
-        <v>12</v>
+        <v>7.3</v>
       </c>
       <c r="AF42" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AK42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL42" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM42" t="n">
         <v>29</v>
@@ -6518,7 +6518,7 @@
         <v>21</v>
       </c>
       <c r="AO42" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6528,7 +6528,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hdj7C6P8</t>
+          <t>dM8ksUho</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6538,128 +6538,128 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K43" t="n">
         <v>2.5</v>
       </c>
-      <c r="J43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N43" t="n">
+        <v>19</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S43" t="n">
         <v>2.1</v>
       </c>
-      <c r="L43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N43" t="n">
-        <v>10</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T43" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="U43" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="V43" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="W43" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X43" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA43" t="n">
         <v>13</v>
       </c>
-      <c r="AA43" t="n">
-        <v>10</v>
-      </c>
       <c r="AB43" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC43" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD43" t="n">
         <v>29</v>
       </c>
       <c r="AE43" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM43" t="n">
         <v>15</v>
       </c>
-      <c r="AH43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK43" t="n">
+      <c r="AN43" t="n">
         <v>12</v>
       </c>
-      <c r="AL43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>21</v>
-      </c>
       <c r="AO43" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6669,7 +6669,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>tOPboUQ9</t>
+          <t>Ek3ub7AF</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6689,31 +6689,31 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>6.5</v>
+        <v>2.88</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
@@ -6722,22 +6722,22 @@
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U44" t="n">
         <v>1.36</v>
@@ -6746,61 +6746,61 @@
         <v>3</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="X44" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="Y44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF44" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD44" t="n">
+      <c r="AG44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM44" t="n">
         <v>29</v>
       </c>
-      <c r="AE44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG44" t="n">
+      <c r="AN44" t="n">
         <v>21</v>
       </c>
-      <c r="AH44" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>51</v>
-      </c>
       <c r="AO44" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6810,7 +6810,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AHdldouS</t>
+          <t>hdj7C6P8</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6830,79 +6830,79 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
       </c>
       <c r="L45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P45" t="n">
         <v>3.4</v>
       </c>
-      <c r="M45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>11</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T45" t="n">
         <v>1.29</v>
       </c>
-      <c r="P45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U45" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W45" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA45" t="n">
         <v>10</v>
       </c>
       <c r="AB45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
         <v>21</v>
@@ -6917,25 +6917,25 @@
         <v>6.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ45" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN45" t="n">
         <v>21</v>
@@ -6951,7 +6951,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>px07XqhS</t>
+          <t>tOPboUQ9</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6961,130 +6961,412 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Anzoategui FC</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.62</v>
+        <v>1.45</v>
       </c>
       <c r="H46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P46" t="n">
         <v>3</v>
       </c>
-      <c r="I46" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.65</v>
-      </c>
       <c r="Q46" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S46" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U46" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V46" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="W46" t="n">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="X46" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="AA46" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AB46" t="n">
-        <v>30</v>
+        <v>9.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE46" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AF46" t="n">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AH46" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="AK46" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL46" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="AN46" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="AO46" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AHdldouS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>17/02/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>px07XqhS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>17/02/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Anzoategui FC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS48"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,10 +740,10 @@
         <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y2" t="n">
         <v>6.5</v>
@@ -791,7 +791,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1.53</v>
@@ -863,10 +863,10 @@
         <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.73</v>
@@ -902,16 +902,16 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -920,7 +920,7 @@
         <v>201</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -929,7 +929,7 @@
         <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN3" t="n">
         <v>67</v>
@@ -1089,10 +1089,10 @@
         <v>1.19</v>
       </c>
       <c r="AR4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -1294,16 +1294,16 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3.7</v>
@@ -1443,10 +1443,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.73</v>
@@ -1455,10 +1455,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
         <v>8</v>
@@ -1503,7 +1503,7 @@
         <v>6.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
         <v>126</v>
@@ -1515,7 +1515,7 @@
         <v>6.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         <v>41</v>
       </c>
       <c r="AO7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP7" t="n">
         <v>6.4</v>
@@ -1574,13 +1574,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1622,10 +1622,10 @@
         <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
@@ -1637,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -1661,7 +1661,7 @@
         <v>451</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1732,7 +1732,7 @@
         <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
@@ -1747,10 +1747,10 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
         <v>2.88</v>
@@ -1759,10 +1759,10 @@
         <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U9" t="n">
         <v>1.67</v>
@@ -1783,10 +1783,10 @@
         <v>8.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>23</v>
@@ -1810,7 +1810,7 @@
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
@@ -1910,10 +1910,10 @@
         <v>1.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W10" t="n">
         <v>3.4</v>
@@ -2291,66 +2291,66 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="V13" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="W13" t="n">
         <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="n">
         <v>45</v>
@@ -2359,10 +2359,10 @@
         <v>50</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>16</v>
@@ -2371,22 +2371,22 @@
         <v>80</v>
       </c>
       <c r="AI13" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AL13" t="n">
         <v>8.25</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2428,28 +2428,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2458,10 +2458,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
         <v>3.25</v>
@@ -2482,25 +2482,25 @@
         <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE14" t="n">
         <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>6.5</v>
@@ -2515,22 +2515,22 @@
         <v>201</v>
       </c>
       <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="n">
         <v>11</v>
       </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO14" t="n">
         <v>29</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>34</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
@@ -2727,13 +2727,13 @@
         <v>2.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2766,10 +2766,10 @@
         <v>2.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -2784,13 +2784,13 @@
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>6.5</v>
@@ -2802,7 +2802,7 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
@@ -2811,25 +2811,25 @@
         <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS16" t="n">
         <v>2.6</v>
@@ -2867,13 +2867,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2891,16 +2891,16 @@
         <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
         <v>5.5</v>
@@ -2921,19 +2921,19 @@
         <v>1.62</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
@@ -2954,19 +2954,19 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
@@ -2978,10 +2978,10 @@
         <v>1.21</v>
       </c>
       <c r="AR17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="18">
@@ -3034,10 +3034,10 @@
         <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.53</v>
@@ -3127,10 +3127,10 @@
         <v>1.2</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="19">
@@ -3165,22 +3165,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3213,25 +3213,25 @@
         <v>2.75</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
         <v>11</v>
       </c>
-      <c r="Z19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>12</v>
-      </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
@@ -3243,28 +3243,28 @@
         <v>6.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
         <v>26</v>
@@ -3324,22 +3324,22 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
         <v>2.63</v>
@@ -3450,19 +3450,19 @@
         <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
         <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K21" t="n">
         <v>1.9</v>
       </c>
       <c r="L21" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
@@ -3471,10 +3471,10 @@
         <v>5.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
@@ -3483,7 +3483,7 @@
         <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
         <v>1.17</v>
@@ -3495,25 +3495,25 @@
         <v>2.3</v>
       </c>
       <c r="W21" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="X21" t="n">
         <v>1.62</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB21" t="n">
         <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD21" t="n">
         <v>40</v>
@@ -3534,22 +3534,22 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM21" t="n">
         <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>2.1</v>
@@ -3888,22 +3888,22 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S24" t="n">
         <v>3.4</v>
@@ -3918,10 +3918,10 @@
         <v>2.75</v>
       </c>
       <c r="W24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y24" t="n">
         <v>6.5</v>
@@ -3942,7 +3942,7 @@
         <v>29</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
         <v>7.5</v>
@@ -3951,10 +3951,10 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -3972,7 +3972,7 @@
         <v>41</v>
       </c>
       <c r="AO24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -4011,22 +4011,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.25</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4041,10 +4041,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
         <v>3.75</v>
@@ -4101,7 +4101,7 @@
         <v>9.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -4110,7 +4110,7 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>34</v>
@@ -4152,60 +4152,60 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K26" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L26" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V26" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W26" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="X26" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
@@ -4214,28 +4214,28 @@
         <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
         <v>19.5</v>
@@ -4247,7 +4247,7 @@
         <v>55</v>
       </c>
       <c r="AN26" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="n">
         <v>45</v>
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -4318,19 +4318,19 @@
         <v>1.82</v>
       </c>
       <c r="R27" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="T27" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U27" t="n">
         <v>1.4</v>
       </c>
       <c r="V27" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W27" t="n">
         <v>1.7</v>
@@ -4339,7 +4339,7 @@
         <v>1.93</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z27" t="n">
         <v>9.5</v>
@@ -4348,22 +4348,22 @@
         <v>8.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF27" t="n">
         <v>6.4</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
         <v>60</v>
@@ -4372,22 +4372,22 @@
         <v>450</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO27" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4426,46 +4426,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H28" t="n">
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K28" t="n">
         <v>2.6</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
         <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T28" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="U28" t="n">
         <v>1.29</v>
@@ -4486,7 +4486,7 @@
         <v>7</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB28" t="n">
         <v>9</v>
@@ -4504,13 +4504,13 @@
         <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
         <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ28" t="n">
         <v>21</v>
@@ -4519,7 +4519,7 @@
         <v>41</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM28" t="n">
         <v>81</v>
@@ -4528,13 +4528,13 @@
         <v>51</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4542,135 +4542,135 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bNEvhasA</t>
+          <t>nsdQpfc6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16/02/2025</t>
+          <t>17/02/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L29" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.8</v>
       </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="U29" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="W29" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AF29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
         <v>26</v>
@@ -4683,138 +4683,138 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2eLVgLCc</t>
+          <t>r9kZrYRI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16/02/2025</t>
+          <t>17/02/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UNAM Pumas</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="J30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L30" t="n">
         <v>2.75</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P30" t="n">
         <v>4</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
-        <v>10</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="S30" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V30" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AD30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK30" t="n">
         <v>11</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AL30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM30" t="n">
         <v>19</v>
       </c>
-      <c r="AL30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4824,7 +4824,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nsdQpfc6</t>
+          <t>AiJT4u9K</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4834,138 +4834,146 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Alianza Huanuco</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.33</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="Y31" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AJ31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN31" t="n">
         <v>23</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AO31" t="n">
         <v>34</v>
       </c>
-      <c r="AL31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="AP31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>r9kZrYRI</t>
+          <t>CfEYK4uC</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4975,101 +4983,101 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X32" t="n">
         <v>2.05</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>13</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X32" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD32" t="n">
         <v>23</v>
       </c>
-      <c r="AD32" t="n">
-        <v>29</v>
-      </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
@@ -5078,25 +5086,25 @@
         <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AM32" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5106,7 +5114,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AiJT4u9K</t>
+          <t>4tiPjAW9</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5116,47 +5124,47 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Alianza Huanuco</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>4.33</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -5165,16 +5173,16 @@
         <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U33" t="n">
         <v>1.44</v>
@@ -5183,79 +5191,71 @@
         <v>2.63</v>
       </c>
       <c r="W33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X33" t="n">
         <v>1.8</v>
       </c>
-      <c r="X33" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Y33" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AC33" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
       </c>
       <c r="AI33" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL33" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AM33" t="n">
         <v>13</v>
       </c>
-      <c r="AL33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>26</v>
-      </c>
       <c r="AN33" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AO33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>2.29</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CfEYK4uC</t>
+          <t>U5iPoHmT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5265,116 +5265,116 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L34" t="n">
         <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="U34" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="X34" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z34" t="n">
         <v>9.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK34" t="n">
         <v>15</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>21</v>
       </c>
       <c r="AL34" t="n">
         <v>13</v>
@@ -5383,20 +5383,24 @@
         <v>41</v>
       </c>
       <c r="AN34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4tiPjAW9</t>
+          <t>Uuru5Rzo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5411,123 +5415,123 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L35" t="n">
         <v>4.33</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.38</v>
-      </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL35" t="n">
         <v>12</v>
       </c>
-      <c r="Z35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB35" t="n">
+      <c r="AM35" t="n">
         <v>41</v>
       </c>
-      <c r="AC35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AN35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO35" t="n">
         <v>41</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>26</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5537,7 +5541,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>U5iPoHmT</t>
+          <t>0YkGkTTs</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5547,142 +5551,138 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P36" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q36" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="T36" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="V36" t="n">
-        <v>2.25</v>
+        <v>2.77</v>
       </c>
       <c r="W36" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="X36" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="Y36" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="AB36" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AF36" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AG36" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="AJ36" t="n">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="AK36" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AL36" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AM36" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AO36" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uuru5Rzo</t>
+          <t>GSzHgxVF</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5692,128 +5692,128 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>4.55</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>1.82</v>
       </c>
       <c r="J37" t="n">
-        <v>2.75</v>
+        <v>5.2</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>2.45</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="Q37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W37" t="n">
         <v>2.15</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.91</v>
-      </c>
       <c r="X37" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AA37" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="AC37" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AD37" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH37" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AI37" t="n">
-        <v>351</v>
+        <v>900</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="AK37" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="AM37" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AN37" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5823,7 +5823,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0YkGkTTs</t>
+          <t>O8vhBp9j</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5833,128 +5833,128 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.65</v>
+        <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I38" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2</v>
+        <v>2.82</v>
       </c>
       <c r="K38" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R38" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T38" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U38" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="V38" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="W38" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.3</v>
+        <v>10.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB38" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="n">
         <v>30</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="AG38" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AH38" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AI38" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AK38" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AM38" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AN38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AO38" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5964,7 +5964,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GSzHgxVF</t>
+          <t>KYdcIUPE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5974,128 +5974,128 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.55</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>1.82</v>
+        <v>3.7</v>
       </c>
       <c r="J39" t="n">
-        <v>5.2</v>
+        <v>2.75</v>
       </c>
       <c r="K39" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.42</v>
+        <v>2.03</v>
       </c>
       <c r="R39" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="V39" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="W39" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="X39" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AA39" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AB39" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AE39" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AG39" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AJ39" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AM39" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AO39" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6105,7 +6105,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>O8vhBp9j</t>
+          <t>hCOb5BfS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6115,128 +6115,128 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.27</v>
+        <v>2.65</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L40" t="n">
         <v>3.2</v>
       </c>
-      <c r="J40" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.7</v>
-      </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="O40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.36</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.26</v>
       </c>
       <c r="U40" t="n">
         <v>1.42</v>
       </c>
       <c r="V40" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="W40" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="X40" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>10.75</v>
+        <v>14.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD40" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE40" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AG40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="AJ40" t="n">
         <v>9</v>
       </c>
       <c r="AK40" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM40" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AN40" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO40" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KYdcIUPE</t>
+          <t>dM8ksUho</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6256,128 +6256,128 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N41" t="n">
+        <v>19</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V41" t="n">
         <v>3.75</v>
       </c>
-      <c r="J41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X41" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AA41" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AD41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AI41" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="n">
         <v>11</v>
       </c>
       <c r="AK41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO41" t="n">
         <v>19</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>41</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6387,7 +6387,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>hCOb5BfS</t>
+          <t>Ek3ub7AF</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6397,119 +6397,119 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.57</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>7.3</v>
+        <v>12</v>
       </c>
       <c r="O42" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P42" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R42" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V42" t="n">
         <v>3</v>
       </c>
-      <c r="T42" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.7</v>
-      </c>
       <c r="W42" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
         <v>9.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="n">
         <v>26</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.3</v>
+        <v>12</v>
       </c>
       <c r="AF42" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI42" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AK42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL42" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM42" t="n">
         <v>29</v>
@@ -6518,7 +6518,7 @@
         <v>21</v>
       </c>
       <c r="AO42" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6528,7 +6528,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dM8ksUho</t>
+          <t>hdj7C6P8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6538,128 +6538,128 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="H43" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="J43" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="U43" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="V43" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="W43" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="Y43" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB43" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AD43" t="n">
         <v>29</v>
       </c>
       <c r="AE43" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AF43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>8.5</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AK43" t="n">
         <v>13</v>
       </c>
-      <c r="AH43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>11</v>
-      </c>
       <c r="AL43" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AM43" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AN43" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AO43" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6669,7 +6669,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ek3ub7AF</t>
+          <t>tOPboUQ9</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6689,118 +6689,118 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>1.44</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.88</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.22</v>
       </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.4</v>
-      </c>
       <c r="U44" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="V44" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W44" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="X44" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="Y44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB44" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG44" t="n">
         <v>23</v>
       </c>
-      <c r="AC44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>12</v>
-      </c>
       <c r="AH44" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AJ44" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK44" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AN44" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AO44" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6810,7 +6810,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hdj7C6P8</t>
+          <t>AHdldouS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6830,79 +6830,79 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
       </c>
       <c r="L45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S45" t="n">
         <v>3.25</v>
       </c>
-      <c r="M45" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N45" t="n">
-        <v>10</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T45" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V45" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
         <v>10</v>
       </c>
       <c r="AB45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
         <v>21</v>
@@ -6917,25 +6917,25 @@
         <v>6.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN45" t="n">
         <v>21</v>
@@ -6951,7 +6951,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>tOPboUQ9</t>
+          <t>px07XqhS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6961,412 +6961,130 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Anzoategui FC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.45</v>
+        <v>2.62</v>
       </c>
       <c r="H46" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>2.67</v>
       </c>
       <c r="J46" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL46" t="n">
         <v>10</v>
       </c>
-      <c r="O46" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W46" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>21</v>
-      </c>
       <c r="AM46" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="AN46" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AO46" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AHdldouS</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>17/02/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Ankaragucu</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N47" t="n">
-        <v>11</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>px07XqhS</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>17/02/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Anzoategui FC</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Metropolitanos</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V48" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -707,7 +707,7 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -749,7 +749,7 @@
         <v>6.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
@@ -770,25 +770,25 @@
         <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>41</v>
@@ -833,28 +833,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -863,16 +863,16 @@
         <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1.18</v>
@@ -881,43 +881,43 @@
         <v>4.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -926,16 +926,16 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>126</v>
       </c>
       <c r="AN3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
         <v>1.9</v>
@@ -978,34 +978,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1014,10 +1014,10 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1026,13 +1026,13 @@
         <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z4" t="n">
         <v>7</v>
@@ -1041,10 +1041,10 @@
         <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
@@ -1065,13 +1065,13 @@
         <v>101</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1080,19 +1080,19 @@
         <v>51</v>
       </c>
       <c r="AO4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -1136,7 +1136,7 @@
         <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1145,10 +1145,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1169,10 +1169,10 @@
         <v>1.13</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
         <v>2.2</v>
@@ -2891,16 +2891,16 @@
         <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
         <v>5.5</v>
@@ -2978,10 +2978,10 @@
         <v>1.21</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="18">
@@ -3165,46 +3165,46 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>3.1</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.88</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U19" t="n">
         <v>1.4</v>
@@ -3213,10 +3213,10 @@
         <v>2.75</v>
       </c>
       <c r="W19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -3231,34 +3231,34 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL19" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>10</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
@@ -3267,7 +3267,7 @@
         <v>19</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3324,16 +3324,16 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
         <v>1.7</v>
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J24" t="n">
         <v>2.1</v>
@@ -3918,10 +3918,10 @@
         <v>2.75</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y24" t="n">
         <v>6.5</v>
@@ -3951,10 +3951,10 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -4450,22 +4450,22 @@
         <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U28" t="n">
         <v>1.29</v>
@@ -4531,10 +4531,10 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="n">
         <v>2.75</v>
@@ -4592,7 +4592,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O29" t="n">
         <v>1.08</v>
@@ -4601,10 +4601,10 @@
         <v>8</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S29" t="n">
         <v>1.8</v>
@@ -4613,10 +4613,10 @@
         <v>1.91</v>
       </c>
       <c r="U29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="V29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W29" t="n">
         <v>1.4</v>
@@ -4634,7 +4634,7 @@
         <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>11</v>
@@ -4652,13 +4652,13 @@
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
         <v>81</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK29" t="n">
         <v>34</v>
@@ -4673,7 +4673,7 @@
         <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -5002,28 +5002,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -5032,10 +5032,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S32" t="n">
         <v>3</v>
@@ -5143,22 +5143,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -5191,16 +5191,16 @@
         <v>2.63</v>
       </c>
       <c r="W33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y33" t="n">
         <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
         <v>15</v>
@@ -5218,13 +5218,13 @@
         <v>9.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI33" t="n">
         <v>351</v>
@@ -5233,7 +5233,7 @@
         <v>6.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL33" t="n">
         <v>8.5</v>
@@ -5284,16 +5284,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>1.91</v>
@@ -5350,7 +5350,7 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD34" t="n">
         <v>41</v>
@@ -5374,7 +5374,7 @@
         <v>8</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
         <v>13</v>
@@ -5391,10 +5391,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="35">
@@ -5993,13 +5993,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H39" t="n">
         <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
         <v>2.75</v>
@@ -6014,19 +6014,19 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S39" t="n">
         <v>3.4</v>
@@ -6050,19 +6050,19 @@
         <v>7.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA39" t="n">
         <v>9</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>17</v>
       </c>
       <c r="AD39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE39" t="n">
         <v>9.5</v>
@@ -6071,13 +6071,13 @@
         <v>6</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
         <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ39" t="n">
         <v>11</v>
@@ -6095,7 +6095,7 @@
         <v>29</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6275,22 +6275,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J41" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -6305,16 +6305,16 @@
         <v>5.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U41" t="n">
         <v>1.25</v>
@@ -6329,13 +6329,13 @@
         <v>2.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB41" t="n">
         <v>41</v>
@@ -6350,10 +6350,10 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH41" t="n">
         <v>34</v>
@@ -6374,7 +6374,7 @@
         <v>15</v>
       </c>
       <c r="AN41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO41" t="n">
         <v>19</v>
@@ -6425,7 +6425,7 @@
         <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>2.2</v>
@@ -6440,10 +6440,10 @@
         <v>12</v>
       </c>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q42" t="n">
         <v>1.8</v>
@@ -6452,10 +6452,10 @@
         <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U42" t="n">
         <v>1.36</v>
@@ -6494,7 +6494,7 @@
         <v>6.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
         <v>41</v>
@@ -6503,7 +6503,7 @@
         <v>151</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK42" t="n">
         <v>15</v>
@@ -6518,7 +6518,7 @@
         <v>21</v>
       </c>
       <c r="AO42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6557,16 +6557,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
@@ -704,7 +704,7 @@
         <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -716,22 +716,22 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.44</v>
@@ -740,31 +740,31 @@
         <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
         <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -776,13 +776,13 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
         <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1.57</v>
@@ -881,28 +881,28 @@
         <v>4.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
@@ -911,13 +911,13 @@
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -1910,10 +1910,10 @@
         <v>1.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W10" t="n">
         <v>3.4</v>
@@ -2154,22 +2154,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -2177,7 +2177,7 @@
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q12" t="n">
         <v>1.98</v>
@@ -2198,13 +2198,13 @@
         <v>2.57</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
         <v>10.25</v>
@@ -2216,19 +2216,19 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE12" t="n">
         <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>70</v>
@@ -2237,22 +2237,22 @@
         <v>600</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM12" t="n">
         <v>45</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2291,39 +2291,39 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
         <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K13" t="n">
         <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="T13" t="n">
         <v>1.3</v>
@@ -2347,31 +2347,31 @@
         <v>27</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB13" t="n">
         <v>80</v>
       </c>
       <c r="AC13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD13" t="n">
         <v>50</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
         <v>80</v>
       </c>
       <c r="AI13" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.6</v>
@@ -2380,7 +2380,7 @@
         <v>7.7</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM13" t="n">
         <v>13</v>
@@ -2428,28 +2428,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2485,19 +2485,19 @@
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2515,22 +2515,22 @@
         <v>201</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2578,19 +2578,19 @@
         <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -2599,16 +2599,16 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U15" t="n">
         <v>1.4</v>
@@ -2617,13 +2617,13 @@
         <v>2.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="n">
         <v>9</v>
@@ -2635,10 +2635,10 @@
         <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>10</v>
@@ -2668,7 +2668,7 @@
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
         <v>41</v>
@@ -3165,13 +3165,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -3183,10 +3183,10 @@
         <v>3.1</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3195,16 +3195,16 @@
         <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U19" t="n">
         <v>1.4</v>
@@ -3213,13 +3213,13 @@
         <v>2.75</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3258,13 +3258,13 @@
         <v>12</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>29</v>
@@ -3453,28 +3453,28 @@
         <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
         <v>2.47</v>
       </c>
       <c r="K21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L21" t="n">
         <v>5.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
@@ -3483,7 +3483,7 @@
         <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="T21" t="n">
         <v>1.17</v>
@@ -3492,7 +3492,7 @@
         <v>1.55</v>
       </c>
       <c r="V21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W21" t="n">
         <v>2.15</v>
@@ -3501,13 +3501,13 @@
         <v>1.62</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB21" t="n">
         <v>15.5</v>
@@ -3519,7 +3519,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AF21" t="n">
         <v>5.9</v>
@@ -3534,16 +3534,16 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>17</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
         <v>70</v>
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
         <v>2.57</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="J22" t="n">
         <v>2.95</v>
@@ -3603,13 +3603,13 @@
         <v>1.75</v>
       </c>
       <c r="L22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.7</v>
@@ -3639,52 +3639,52 @@
         <v>2.32</v>
       </c>
       <c r="X22" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Z22" t="n">
         <v>8.75</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD22" t="n">
         <v>55</v>
       </c>
       <c r="AE22" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AF22" t="n">
         <v>5.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH22" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI22" t="n">
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>15.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
         <v>60</v>
@@ -3729,19 +3729,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J23" t="n">
         <v>5.9</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L23" t="n">
         <v>2.22</v>
@@ -3750,13 +3750,13 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P23" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q23" t="n">
         <v>2.35</v>
@@ -3783,10 +3783,10 @@
         <v>1.55</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
         <v>19.5</v>
@@ -3795,13 +3795,13 @@
         <v>120</v>
       </c>
       <c r="AC23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF23" t="n">
         <v>6.9</v>
@@ -3816,22 +3816,22 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AK23" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AL23" t="n">
         <v>8.75</v>
       </c>
       <c r="AM23" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AN23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J24" t="n">
         <v>2.1</v>
@@ -3888,13 +3888,13 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
         <v>3.5</v>
@@ -3909,19 +3909,19 @@
         <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V24" t="n">
         <v>2.75</v>
       </c>
       <c r="W24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Y24" t="n">
         <v>6.5</v>
@@ -3951,7 +3951,7 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
         <v>351</v>
@@ -4029,40 +4029,40 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
         <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
         <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y25" t="n">
         <v>7.5</v>
@@ -4152,22 +4152,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
         <v>3.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="K26" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L26" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -4175,7 +4175,7 @@
         <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q26" t="n">
         <v>1.98</v>
@@ -4190,67 +4190,67 @@
         <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V26" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W26" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="X26" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="Y26" t="n">
         <v>6.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AI26" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN26" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="K27" t="n">
         <v>2.07</v>
       </c>
       <c r="L27" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -4318,16 +4318,16 @@
         <v>1.82</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S27" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U27" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V27" t="n">
         <v>2.55</v>
@@ -4339,7 +4339,7 @@
         <v>1.93</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Z27" t="n">
         <v>9.5</v>
@@ -4348,19 +4348,19 @@
         <v>8.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>9.75</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG27" t="n">
         <v>14</v>
@@ -4369,25 +4369,25 @@
         <v>60</v>
       </c>
       <c r="AI27" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ27" t="n">
         <v>10.75</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO27" t="n">
         <v>37</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>40</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>5</v>
@@ -4444,40 +4444,40 @@
         <v>7.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
         <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="T28" t="n">
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V28" t="n">
         <v>3.5</v>
       </c>
       <c r="W28" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X28" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -4486,16 +4486,16 @@
         <v>7</v>
       </c>
       <c r="AA28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB28" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9</v>
       </c>
       <c r="AC28" t="n">
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -4522,7 +4522,7 @@
         <v>23</v>
       </c>
       <c r="AM28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN28" t="n">
         <v>51</v>
@@ -4531,10 +4531,10 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4571,19 +4571,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K29" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L29" t="n">
         <v>4.75</v>
@@ -4592,31 +4592,31 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T29" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="U29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="V29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W29" t="n">
         <v>1.4</v>
@@ -4631,28 +4631,28 @@
         <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
         <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
         <v>81</v>
@@ -4661,7 +4661,7 @@
         <v>26</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="n">
         <v>17</v>
@@ -4673,7 +4673,7 @@
         <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4712,16 +4712,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>2.25</v>
@@ -4769,10 +4769,10 @@
         <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
@@ -4799,19 +4799,19 @@
         <v>151</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>9</v>
       </c>
       <c r="AM30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -4853,22 +4853,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -5164,7 +5164,7 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -5302,10 +5302,10 @@
         <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5320,10 +5320,10 @@
         <v>1.48</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U34" t="n">
         <v>1.57</v>
@@ -5350,13 +5350,13 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD34" t="n">
         <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF34" t="n">
         <v>6</v>
@@ -5374,7 +5374,7 @@
         <v>8</v>
       </c>
       <c r="AK34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL34" t="n">
         <v>13</v>
@@ -5391,10 +5391,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="35">
@@ -5447,10 +5447,10 @@
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -5471,10 +5471,10 @@
         <v>1.22</v>
       </c>
       <c r="U35" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V35" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W35" t="n">
         <v>1.91</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="K36" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -5600,10 +5600,10 @@
         <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
         <v>3.35</v>
@@ -5615,25 +5615,25 @@
         <v>1.39</v>
       </c>
       <c r="V36" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="W36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="X36" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA36" t="n">
         <v>8.25</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
         <v>14</v>
@@ -5645,34 +5645,34 @@
         <v>6.9</v>
       </c>
       <c r="AF36" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM36" t="n">
         <v>90</v>
       </c>
-      <c r="AI36" t="n">
-        <v>800</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>80</v>
-      </c>
       <c r="AN36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5711,22 +5711,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I37" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="J37" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K37" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L37" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="M37" t="n">
         <v>1.11</v>
@@ -5747,7 +5747,7 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="T37" t="n">
         <v>1.18</v>
@@ -5759,37 +5759,37 @@
         <v>2.35</v>
       </c>
       <c r="W37" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="X37" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z37" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE37" t="n">
         <v>5.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AG37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH37" t="n">
         <v>120</v>
@@ -5798,22 +5798,22 @@
         <v>900</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL37" t="n">
         <v>8.75</v>
       </c>
       <c r="AM37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN37" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO37" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5855,7 +5855,7 @@
         <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
         <v>3.2</v>
@@ -5867,7 +5867,7 @@
         <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -5894,25 +5894,25 @@
         <v>1.26</v>
       </c>
       <c r="U38" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V38" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X38" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z38" t="n">
         <v>10.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
         <v>23</v>
@@ -5951,7 +5951,7 @@
         <v>45</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO38" t="n">
         <v>37</v>
@@ -5993,22 +5993,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
         <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K39" t="n">
         <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -6035,7 +6035,7 @@
         <v>1.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V39" t="n">
         <v>2.75</v>
@@ -6068,7 +6068,7 @@
         <v>9.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
@@ -6077,7 +6077,7 @@
         <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ39" t="n">
         <v>11</v>
@@ -6134,109 +6134,109 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="I40" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="L40" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
         <v>1.28</v>
       </c>
       <c r="P40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S40" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="T40" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U40" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V40" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="W40" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X40" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="Y40" t="n">
         <v>9.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA40" t="n">
         <v>9.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD40" t="n">
         <v>26</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK40" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM40" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6281,7 +6281,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -6317,7 +6317,7 @@
         <v>1.62</v>
       </c>
       <c r="U41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V41" t="n">
         <v>3.75</v>
@@ -6379,8 +6379,12 @@
       <c r="AO41" t="n">
         <v>19</v>
       </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
+      <c r="AP41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
     </row>
@@ -6458,7 +6462,7 @@
         <v>1.36</v>
       </c>
       <c r="U42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V42" t="n">
         <v>3</v>
@@ -6599,10 +6603,10 @@
         <v>1.29</v>
       </c>
       <c r="U43" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V43" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W43" t="n">
         <v>1.8</v>
@@ -6698,16 +6702,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
@@ -6716,40 +6720,40 @@
         <v>7.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T44" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W44" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y44" t="n">
         <v>5.5</v>
@@ -6761,13 +6765,13 @@
         <v>9</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC44" t="n">
         <v>15</v>
       </c>
       <c r="AD44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="n">
         <v>8</v>
@@ -6797,7 +6801,7 @@
         <v>81</v>
       </c>
       <c r="AN44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO44" t="n">
         <v>67</v>
@@ -6881,7 +6885,7 @@
         <v>1.33</v>
       </c>
       <c r="U45" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V45" t="n">
         <v>2.75</v>
@@ -6980,22 +6984,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I46" t="n">
         <v>2.67</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
         <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -7003,13 +7007,13 @@
         <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S46" t="n">
         <v>3.45</v>
@@ -7024,31 +7028,31 @@
         <v>2.45</v>
       </c>
       <c r="W46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X46" t="n">
         <v>1.82</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="Z46" t="n">
         <v>12.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB46" t="n">
         <v>30</v>
       </c>
       <c r="AC46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD46" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE46" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF46" t="n">
         <v>5.8</v>
@@ -7063,7 +7067,7 @@
         <v>700</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AK46" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -710,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
         <v>1.3</v>
@@ -902,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -935,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP3" t="n">
         <v>1.9</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.6</v>
@@ -996,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1026,13 +1026,13 @@
         <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
         <v>7</v>
@@ -1041,7 +1041,7 @@
         <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>19</v>
@@ -1065,13 +1065,13 @@
         <v>101</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1080,7 +1080,7 @@
         <v>51</v>
       </c>
       <c r="AO4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="n">
         <v>4.6</v>
@@ -1425,19 +1425,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
@@ -1446,7 +1446,7 @@
         <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.73</v>
@@ -1491,19 +1491,19 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD7" t="n">
         <v>51</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
         <v>126</v>
@@ -1512,13 +1512,13 @@
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1574,13 +1574,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1589,13 +1589,13 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1622,13 +1622,13 @@
         <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
         <v>7</v>
@@ -1637,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -1661,7 +1661,7 @@
         <v>451</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1673,7 +1673,7 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
@@ -1868,16 +1868,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.73</v>
@@ -1898,31 +1898,31 @@
         <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Z10" t="n">
         <v>7</v>
@@ -1934,34 +1934,34 @@
         <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AF10" t="n">
         <v>6.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
         <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>67</v>
@@ -1970,7 +1970,7 @@
         <v>67</v>
       </c>
       <c r="AO10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2154,22 +2154,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="K12" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -2192,31 +2192,31 @@
         <v>1.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V12" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
         <v>30</v>
@@ -2225,34 +2225,34 @@
         <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AM12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AO12" t="n">
         <v>45</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>37</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2291,60 +2291,60 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J13" t="n">
         <v>4.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
         <v>2.55</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="X13" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
         <v>15.5</v>
@@ -2356,40 +2356,40 @@
         <v>50</v>
       </c>
       <c r="AD13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AL13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM13" t="n">
         <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>3.2</v>
@@ -2440,16 +2440,16 @@
         <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2458,10 +2458,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>3.25</v>
@@ -2482,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
         <v>11</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
         <v>26</v>
@@ -2515,7 +2515,7 @@
         <v>201</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
         <v>17</v>
@@ -2587,10 +2587,10 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -2599,16 +2599,16 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U15" t="n">
         <v>1.4</v>
@@ -2718,16 +2718,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
@@ -2736,10 +2736,10 @@
         <v>3.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2766,10 +2766,10 @@
         <v>2.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -2778,16 +2778,16 @@
         <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD16" t="n">
         <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>34</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -2802,7 +2802,7 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
@@ -2867,13 +2867,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2882,7 +2882,7 @@
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2891,16 +2891,16 @@
         <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
         <v>5.5</v>
@@ -2909,31 +2909,31 @@
         <v>1.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
         <v>13</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -2954,19 +2954,19 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
@@ -2978,10 +2978,10 @@
         <v>1.21</v>
       </c>
       <c r="AR17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="18">
@@ -3016,16 +3016,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
@@ -3064,16 +3064,16 @@
         <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
         <v>10</v>
@@ -3118,7 +3118,7 @@
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="n">
         <v>4.4</v>
@@ -3165,13 +3165,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -3183,10 +3183,10 @@
         <v>3.1</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3234,7 +3234,7 @@
         <v>23</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
@@ -3258,13 +3258,13 @@
         <v>12</v>
       </c>
       <c r="AL19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
         <v>29</v>
@@ -3306,16 +3306,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.38</v>
@@ -3336,10 +3336,10 @@
         <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="n">
         <v>2.63</v>
@@ -3363,7 +3363,7 @@
         <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
         <v>8.5</v>
@@ -3372,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
         <v>23</v>
@@ -3381,7 +3381,7 @@
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -3393,7 +3393,7 @@
         <v>201</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>29</v>
@@ -3453,28 +3453,28 @@
         <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
@@ -3483,22 +3483,22 @@
         <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
         <v>1.17</v>
       </c>
       <c r="U21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
         <v>2.32</v>
       </c>
       <c r="W21" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y21" t="n">
         <v>5</v>
@@ -3513,19 +3513,19 @@
         <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD21" t="n">
         <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
         <v>120</v>
@@ -3534,22 +3534,22 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK21" t="n">
         <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO21" t="n">
         <v>70</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>80</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3888,40 +3888,40 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
         <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V24" t="n">
         <v>2.75</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X24" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Y24" t="n">
         <v>6.5</v>
@@ -3951,7 +3951,7 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="n">
         <v>351</v>
@@ -4011,58 +4011,58 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.1</v>
       </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>10</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
         <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V25" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y25" t="n">
         <v>7.5</v>
@@ -4095,13 +4095,13 @@
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -4110,7 +4110,7 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>34</v>
@@ -4289,105 +4289,105 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J27" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="K27" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.82</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.78</v>
-      </c>
       <c r="S27" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="U27" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V27" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W27" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA27" t="n">
         <v>8.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
         <v>15.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4426,13 +4426,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H28" t="n">
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
         <v>1.8</v>
@@ -4441,43 +4441,43 @@
         <v>2.6</v>
       </c>
       <c r="L28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
         <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="T28" t="n">
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V28" t="n">
         <v>3.5</v>
       </c>
       <c r="W28" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X28" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -4486,19 +4486,19 @@
         <v>7</v>
       </c>
       <c r="AA28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB28" t="n">
         <v>9</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.5</v>
       </c>
       <c r="AC28" t="n">
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>10</v>
@@ -4510,7 +4510,7 @@
         <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ28" t="n">
         <v>21</v>
@@ -4519,10 +4519,10 @@
         <v>41</v>
       </c>
       <c r="AL28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN28" t="n">
         <v>51</v>
@@ -4531,10 +4531,10 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4577,7 +4577,7 @@
         <v>5.25</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J29" t="n">
         <v>1.91</v>
@@ -4634,7 +4634,7 @@
         <v>9.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>11</v>
@@ -4658,7 +4658,7 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
@@ -4862,19 +4862,19 @@
         <v>2.63</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
@@ -4901,10 +4901,10 @@
         <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
@@ -5020,10 +5020,10 @@
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -5032,10 +5032,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>3</v>
@@ -5164,7 +5164,7 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -5290,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5314,16 +5314,16 @@
         <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U34" t="n">
         <v>1.57</v>
@@ -5350,13 +5350,13 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD34" t="n">
         <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
         <v>6</v>
@@ -5391,10 +5391,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="35">
@@ -5471,10 +5471,10 @@
         <v>1.22</v>
       </c>
       <c r="U35" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V35" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W35" t="n">
         <v>1.91</v>
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J37" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="K37" t="n">
         <v>1.93</v>
@@ -5732,22 +5732,22 @@
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R37" t="n">
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="T37" t="n">
         <v>1.18</v>
@@ -5759,16 +5759,16 @@
         <v>2.35</v>
       </c>
       <c r="W37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X37" t="n">
         <v>1.65</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
         <v>15</v>
@@ -5777,19 +5777,19 @@
         <v>75</v>
       </c>
       <c r="AC37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE37" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF37" t="n">
         <v>6</v>
       </c>
       <c r="AG37" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH37" t="n">
         <v>120</v>
@@ -5798,22 +5798,22 @@
         <v>900</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AK37" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AL37" t="n">
         <v>8.75</v>
       </c>
       <c r="AM37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN37" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -6035,7 +6035,7 @@
         <v>1.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V39" t="n">
         <v>2.75</v>
@@ -6134,70 +6134,70 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
         <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="L40" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O40" t="n">
         <v>1.28</v>
       </c>
       <c r="P40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R40" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S40" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="T40" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U40" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V40" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="W40" t="n">
         <v>1.6</v>
       </c>
       <c r="X40" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC40" t="n">
         <v>22</v>
@@ -6206,13 +6206,13 @@
         <v>26</v>
       </c>
       <c r="AE40" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH40" t="n">
         <v>45</v>
@@ -6221,19 +6221,19 @@
         <v>300</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AL40" t="n">
         <v>9.25</v>
       </c>
       <c r="AM40" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AN40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO40" t="n">
         <v>26</v>
@@ -6275,22 +6275,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K41" t="n">
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -6317,7 +6317,7 @@
         <v>1.62</v>
       </c>
       <c r="U41" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V41" t="n">
         <v>3.75</v>
@@ -6332,7 +6332,7 @@
         <v>17</v>
       </c>
       <c r="Z41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA41" t="n">
         <v>13</v>
@@ -6350,10 +6350,10 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
         <v>34</v>
@@ -6374,7 +6374,7 @@
         <v>15</v>
       </c>
       <c r="AN41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO41" t="n">
         <v>19</v>
@@ -6420,13 +6420,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
@@ -6435,13 +6435,13 @@
         <v>2.2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
         <v>1.25</v>
@@ -6462,7 +6462,7 @@
         <v>1.36</v>
       </c>
       <c r="U42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V42" t="n">
         <v>3</v>
@@ -6480,7 +6480,7 @@
         <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB42" t="n">
         <v>23</v>
@@ -6513,7 +6513,7 @@
         <v>15</v>
       </c>
       <c r="AL42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM42" t="n">
         <v>29</v>
@@ -6591,10 +6591,10 @@
         <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S43" t="n">
         <v>3.5</v>
@@ -6603,10 +6603,10 @@
         <v>1.29</v>
       </c>
       <c r="U43" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V43" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W43" t="n">
         <v>1.8</v>
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
@@ -6732,10 +6732,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="n">
         <v>3.75</v>
@@ -6744,10 +6744,10 @@
         <v>1.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V44" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W44" t="n">
         <v>2.38</v>
@@ -6873,19 +6873,19 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U45" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V45" t="n">
         <v>2.75</v>
@@ -6984,19 +6984,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="H46" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="I46" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="L46" t="n">
         <v>3.2</v>
@@ -7004,79 +7004,79 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S46" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="T46" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U46" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="V46" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="W46" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X46" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="Y46" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>7.3</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AK46" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB46" t="n">
+      <c r="AL46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM46" t="n">
         <v>30</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>32</v>
       </c>
       <c r="AN46" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -516,147 +516,147 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over25_FT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under25_FT</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over35_FT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under35_FT</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over3_FT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over2_FT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under2_FT</t>
         </is>
       </c>
     </row>
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -713,91 +713,95 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>4.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>1.63</v>
       </c>
       <c r="AA2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC2" t="n">
         <v>9</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>15</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>17</v>
       </c>
-      <c r="AD2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>8</v>
-      </c>
       <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO2" t="n">
         <v>51</v>
       </c>
-      <c r="AI2" t="n">
-        <v>401</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>51</v>
       </c>
-      <c r="AN2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
     </row>
@@ -842,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
@@ -854,7 +858,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -862,38 +866,34 @@
       <c r="P3" t="n">
         <v>7</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.8</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>2</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>1.18</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>4.5</v>
       </c>
-      <c r="W3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="Y3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
         <v>8.5</v>
@@ -902,49 +902,53 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL3" t="n">
         <v>29</v>
       </c>
-      <c r="AF3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AM3" t="n">
         <v>51</v>
       </c>
-      <c r="AI3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AN3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AP3" t="n">
         <v>51</v>
       </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>51</v>
       </c>
-      <c r="AO3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>1.9</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AS3" t="n">
         <v>2</v>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -990,7 +994,7 @@
         <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1008,91 +1012,91 @@
         <v>2.38</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.7</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>1.44</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>5.5</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>1.14</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>1.62</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>2.2</v>
       </c>
-      <c r="W4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Y4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA4" t="n">
         <v>5</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>7</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>15</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>19</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>41</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>6</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>23</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>101</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>101</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>9</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>23</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AN4" t="n">
         <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>51</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
       </c>
       <c r="AP4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>4.6</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AS4" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -1139,7 +1143,7 @@
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1157,91 +1161,91 @@
         <v>2.25</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.88</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>1.4</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>6</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>1.13</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>1.67</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>2.1</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>2.2</v>
       </c>
-      <c r="X5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA5" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>12</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>12</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>29</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>29</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>41</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
         <v>5.5</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>19</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>81</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
         <v>101</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
         <v>6.5</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>12</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AN5" t="n">
         <v>12</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AO5" t="n">
         <v>29</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AP5" t="n">
         <v>29</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AQ5" t="n">
         <v>41</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>4.9</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AS5" t="n">
         <v>1.18</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1.78</v>
       </c>
     </row>
     <row r="6">
@@ -1288,7 +1292,7 @@
         <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L6" t="n">
         <v>3.5</v>
@@ -1297,7 +1301,7 @@
         <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O6" t="n">
         <v>1.73</v>
@@ -1306,91 +1310,91 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.4</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>1.33</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>7</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>1.1</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>1.75</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>2.05</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>2.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA6" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>15</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>15</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AD6" t="n">
         <v>41</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>41</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>51</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>4.75</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
         <v>6</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>23</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>101</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
         <v>101</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>5.5</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>10</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AN6" t="n">
         <v>12</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AO6" t="n">
         <v>26</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AP6" t="n">
         <v>29</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
         <v>51</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>6</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AS6" t="n">
         <v>1.13</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.78</v>
       </c>
     </row>
     <row r="7">
@@ -1425,13 +1429,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1440,13 +1444,13 @@
         <v>1.73</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.73</v>
@@ -1455,91 +1459,91 @@
         <v>2</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.5</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>1.3</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>8</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>1.08</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>1.78</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>2.03</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>2.63</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>1.44</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>4.75</v>
       </c>
-      <c r="Z7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="n">
         <v>11</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
         <v>29</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AF7" t="n">
         <v>51</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
         <v>4.75</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AH7" t="n">
         <v>6</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>26</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>126</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
         <v>101</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
         <v>7</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>17</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AN7" t="n">
         <v>17</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AO7" t="n">
         <v>41</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AP7" t="n">
         <v>41</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
         <v>67</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>6.4</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AS7" t="n">
         <v>1.12</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1.52</v>
       </c>
     </row>
     <row r="8">
@@ -1592,10 +1596,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1604,91 +1608,91 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.4</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>1.53</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>5</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>1.17</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>1.53</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>2.38</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>2.25</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>1.57</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>5</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>7</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>9</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>13</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>17</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>41</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>7</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
         <v>7</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>21</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>81</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
         <v>451</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
         <v>10</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>23</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
         <v>17</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>51</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
       </c>
       <c r="AP8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
         <v>3.9</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AS8" t="n">
         <v>1.26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1753,88 +1757,88 @@
         <v>2.2</v>
       </c>
       <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.88</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>1.4</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>6.5</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>1.11</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>1.67</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>2.1</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>2.38</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.53</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>5.5</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>11</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>21</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
         <v>23</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>41</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
         <v>6</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>21</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>81</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
         <v>101</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>17</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
         <v>15</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
         <v>41</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AP9" t="n">
         <v>41</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
         <v>51</v>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1.85</v>
-      </c>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1868,112 +1872,112 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L10" t="n">
         <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA10" t="n">
         <v>4.33</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="AB10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL10" t="n">
         <v>9</v>
       </c>
-      <c r="T10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AM10" t="n">
         <v>26</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AN10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP10" t="n">
         <v>51</v>
       </c>
-      <c r="AE10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AQ10" t="n">
         <v>81</v>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
     </row>
@@ -2039,88 +2043,88 @@
         <v>2.1</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.1</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>1.36</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>6.5</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>1.11</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>1.67</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>2.1</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>2.63</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>1.44</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>8</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
         <v>11</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
         <v>17</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AE11" t="n">
         <v>23</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
         <v>41</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AH11" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>23</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>101</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>101</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>7.5</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>19</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AN11" t="n">
         <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>41</v>
       </c>
       <c r="AO11" t="n">
         <v>51</v>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>1.74</v>
-      </c>
+      <c r="AP11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2179,83 +2183,83 @@
       <c r="P12" t="n">
         <v>2.77</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
         <v>1.98</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>1.65</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>3.25</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>1.25</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>1.4</v>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
         <v>2.5</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>1.8</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
         <v>6.8</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
         <v>9.25</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AD12" t="n">
         <v>18</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AE12" t="n">
         <v>16.5</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AF12" t="n">
         <v>30</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AH12" t="n">
         <v>6.3</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>15</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>80</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AK12" t="n">
         <v>700</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>18.5</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AN12" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AO12" t="n">
         <v>50</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AP12" t="n">
         <v>35</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AQ12" t="n">
         <v>45</v>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
     </row>
@@ -2297,7 +2301,7 @@
         <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
         <v>4.9</v>
@@ -2306,7 +2310,7 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -2314,85 +2318,85 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q13" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
         <v>1.98</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>1.65</v>
       </c>
-      <c r="S13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.25</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>1.4</v>
       </c>
-      <c r="V13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.88</v>
-      </c>
       <c r="X13" t="n">
-        <v>1.72</v>
+        <v>2.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>1.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>1.7</v>
       </c>
       <c r="AA13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
         <v>80</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
         <v>50</v>
       </c>
-      <c r="AD13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AF13" t="n">
-        <v>6.7</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI13" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>90</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AK13" t="n">
         <v>900</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AL13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AN13" t="n">
         <v>8.25</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AO13" t="n">
         <v>13</v>
       </c>
-      <c r="AN13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>32</v>
+      </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
     </row>
@@ -2428,10 +2432,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>3.2</v>
@@ -2440,16 +2444,16 @@
         <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2457,83 +2461,83 @@
       <c r="P14" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U14" t="n">
         <v>3.25</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>1.33</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>1.4</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>2.75</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>1.73</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>2</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB14" t="n">
         <v>11</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
         <v>26</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AG14" t="n">
         <v>10</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AH14" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>13</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>41</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AK14" t="n">
         <v>201</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM14" t="n">
         <v>17</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AN14" t="n">
         <v>12</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>34</v>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>34</v>
+      </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
     </row>
@@ -2599,91 +2603,91 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="S15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U15" t="n">
         <v>3.4</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>1.3</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>1.4</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
         <v>2.75</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>1.83</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>1.83</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AA15" t="n">
         <v>7</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
         <v>9</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AC15" t="n">
         <v>9</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
         <v>17</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AE15" t="n">
         <v>17</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AF15" t="n">
         <v>29</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AG15" t="n">
         <v>10</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AH15" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>15</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
         <v>51</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AK15" t="n">
         <v>251</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
         <v>11</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>19</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AN15" t="n">
         <v>13</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>34</v>
       </c>
       <c r="AO15" t="n">
         <v>41</v>
       </c>
       <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
         <v>2.75</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AS15" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>2.55</v>
       </c>
     </row>
     <row r="16">
@@ -2736,10 +2740,10 @@
         <v>3.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2748,91 +2752,91 @@
         <v>3.4</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z16" t="n">
         <v>2</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AA16" t="n">
         <v>9</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
         <v>13</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AC16" t="n">
         <v>10</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AD16" t="n">
         <v>26</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AE16" t="n">
         <v>21</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AF16" t="n">
         <v>29</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
         <v>10</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AH16" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>15</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>51</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
         <v>201</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AL16" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>12</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AN16" t="n">
         <v>10</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AO16" t="n">
         <v>23</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AP16" t="n">
         <v>21</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AQ16" t="n">
         <v>29</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AR16" t="n">
         <v>2.7</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AS16" t="n">
         <v>1.45</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="17">
@@ -2867,13 +2871,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2882,13 +2886,13 @@
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
         <v>1.53</v>
@@ -2897,91 +2901,91 @@
         <v>2.38</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.7</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>1.44</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>5.5</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>1.14</v>
       </c>
-      <c r="U17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>1.62</v>
       </c>
       <c r="AA17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB17" t="n">
         <v>13</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
         <v>34</v>
       </c>
-      <c r="AC17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF17" t="n">
         <v>41</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AG17" t="n">
         <v>6</v>
       </c>
-      <c r="AF17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI17" t="n">
         <v>19</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
         <v>67</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AK17" t="n">
         <v>101</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>10</v>
-      </c>
       <c r="AL17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AM17" t="n">
         <v>11</v>
       </c>
-      <c r="AM17" t="n">
-        <v>23</v>
-      </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>41</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AR17" t="n">
         <v>4.3</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AS17" t="n">
         <v>1.21</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>1.83</v>
       </c>
     </row>
     <row r="18">
@@ -3016,16 +3020,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
@@ -3046,91 +3050,91 @@
         <v>2.38</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S18" t="n">
         <v>2.7</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>1.44</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>5.5</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>1.14</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>1.62</v>
       </c>
-      <c r="V18" t="n">
+      <c r="X18" t="n">
         <v>2.2</v>
       </c>
-      <c r="W18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Y18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
         <v>6</v>
       </c>
-      <c r="Z18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI18" t="n">
         <v>21</v>
       </c>
-      <c r="AC18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>81</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AK18" t="n">
         <v>101</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AL18" t="n">
         <v>7.5</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>15</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AN18" t="n">
         <v>13</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>34</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
       </c>
       <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
         <v>4.4</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AS18" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="19">
@@ -3165,28 +3169,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3194,83 +3198,83 @@
       <c r="P19" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z19" t="n">
         <v>2</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>15</v>
-      </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
         <v>29</v>
       </c>
-      <c r="AC19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>34</v>
-      </c>
       <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG19" t="n">
         <v>10</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AH19" t="n">
         <v>6</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>13</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>41</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AK19" t="n">
         <v>201</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>12</v>
-      </c>
       <c r="AL19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>29</v>
       </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
     </row>
@@ -3306,112 +3310,112 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K20" t="n">
         <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.67</v>
       </c>
-      <c r="R20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8</v>
-      </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="AA20" t="n">
         <v>8.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
       </c>
       <c r="AF20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
         <v>7.5</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL20" t="n">
         <v>15</v>
       </c>
-      <c r="AH20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="AM20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN20" t="n">
         <v>15</v>
       </c>
-      <c r="AK20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM20" t="n">
+      <c r="AO20" t="n">
         <v>51</v>
       </c>
-      <c r="AN20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
+      <c r="AP20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>34</v>
+      </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
     </row>
@@ -3447,112 +3451,112 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I21" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N21" t="n">
         <v>5.1</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5.3</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.47</v>
-      </c>
+        <v>2.3</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>2.62</v>
       </c>
       <c r="T21" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>4.75</v>
       </c>
       <c r="V21" t="n">
-        <v>2.32</v>
+        <v>1.15</v>
       </c>
       <c r="W21" t="n">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL21" t="n">
         <v>8.75</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AM21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN21" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>65</v>
-      </c>
       <c r="AO21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>75</v>
+      </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
@@ -3588,13 +3592,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>2.57</v>
       </c>
       <c r="I22" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
         <v>2.95</v>
@@ -3609,7 +3613,7 @@
         <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="O22" t="n">
         <v>1.7</v>
@@ -3617,83 +3621,83 @@
       <c r="P22" t="n">
         <v>2.05</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
         <v>3</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>1.34</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AH22" t="n">
         <v>5.5</v>
       </c>
-      <c r="T22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>150</v>
-      </c>
       <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AK22" t="n">
         <v>101</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>22</v>
-      </c>
       <c r="AL22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN22" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>60</v>
       </c>
       <c r="AO22" t="n">
         <v>80</v>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>90</v>
+      </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
     </row>
@@ -3729,112 +3733,112 @@
         </is>
       </c>
       <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N23" t="n">
         <v>5.6</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5.8</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.53</v>
-      </c>
+        <v>2.42</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
       <c r="T23" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="V23" t="n">
-        <v>2.42</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="X23" t="n">
-        <v>1.55</v>
+        <v>2.37</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.75</v>
+        <v>2.27</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>1.57</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>80</v>
+        <v>17.5</v>
       </c>
       <c r="AD23" t="n">
         <v>100</v>
       </c>
       <c r="AE23" t="n">
-        <v>5.8</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.9</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>5.6</v>
       </c>
       <c r="AH23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>150</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AK23" t="n">
         <v>101</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AL23" t="n">
         <v>5</v>
       </c>
-      <c r="AK23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AM23" t="n">
-        <v>11.75</v>
+        <v>6.8</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>45</v>
+      </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
     </row>
@@ -3899,83 +3903,83 @@
       <c r="P24" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
         <v>1.93</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>1.93</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>3.4</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>1.33</v>
       </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
         <v>1.4</v>
       </c>
-      <c r="V24" t="n">
+      <c r="X24" t="n">
         <v>2.75</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Y24" t="n">
         <v>1.91</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AA24" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AB24" t="n">
         <v>7</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AC24" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AD24" t="n">
         <v>11</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AE24" t="n">
         <v>13</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AF24" t="n">
         <v>29</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AG24" t="n">
         <v>10</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AH24" t="n">
         <v>7.5</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>19</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AJ24" t="n">
         <v>51</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AK24" t="n">
         <v>351</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AL24" t="n">
         <v>15</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>29</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AN24" t="n">
         <v>19</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AO24" t="n">
         <v>67</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AP24" t="n">
         <v>41</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AQ24" t="n">
         <v>51</v>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
     </row>
@@ -4011,13 +4015,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -4040,83 +4044,83 @@
       <c r="P25" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.7</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U25" t="n">
         <v>3.75</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>1.25</v>
       </c>
-      <c r="U25" t="n">
+      <c r="W25" t="n">
         <v>1.44</v>
       </c>
-      <c r="V25" t="n">
+      <c r="X25" t="n">
         <v>2.63</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Y25" t="n">
         <v>1.83</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>1.83</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AA25" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC25" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AD25" t="n">
         <v>21</v>
       </c>
-      <c r="AC25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>29</v>
-      </c>
       <c r="AE25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL25" t="n">
         <v>9</v>
       </c>
-      <c r="AF25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG25" t="n">
+      <c r="AM25" t="n">
         <v>15</v>
       </c>
-      <c r="AH25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL25" t="n">
+      <c r="AN25" t="n">
         <v>12</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>34</v>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
+      <c r="AP25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
     </row>
@@ -4177,83 +4181,83 @@
       <c r="P26" t="n">
         <v>2.77</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
         <v>1.98</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>1.65</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>3.25</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>1.25</v>
       </c>
-      <c r="U26" t="n">
+      <c r="W26" t="n">
         <v>1.39</v>
       </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>2.57</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>1.78</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>1.82</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AA26" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AB26" t="n">
         <v>9</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AC26" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AD26" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AE26" t="n">
         <v>17</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AF26" t="n">
         <v>30</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AG26" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AH26" t="n">
         <v>6.1</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AJ26" t="n">
         <v>70</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AK26" t="n">
         <v>600</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AL26" t="n">
         <v>10.5</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>21</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AN26" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AO26" t="n">
         <v>60</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AP26" t="n">
         <v>35</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AQ26" t="n">
         <v>40</v>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
     </row>
@@ -4289,108 +4293,108 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.82</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="T27" t="n">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="U27" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.38</v>
       </c>
-      <c r="V27" t="n">
+      <c r="X27" t="n">
         <v>2.57</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Y27" t="n">
         <v>1.62</v>
       </c>
-      <c r="X27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>7.8</v>
-      </c>
       <c r="Z27" t="n">
-        <v>10.25</v>
+        <v>2.05</v>
       </c>
       <c r="AA27" t="n">
         <v>8.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>15.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.3</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH27" t="n">
-        <v>55</v>
+        <v>6.6</v>
       </c>
       <c r="AI27" t="n">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11.25</v>
+        <v>50</v>
       </c>
       <c r="AK27" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AL27" t="n">
         <v>11.75</v>
       </c>
       <c r="AM27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO27" t="n">
         <v>55</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AP27" t="n">
         <v>30</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AQ27" t="n">
         <v>35</v>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
     </row>
@@ -4450,94 +4454,94 @@
         <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="T28" t="n">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="U28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.29</v>
       </c>
-      <c r="V28" t="n">
+      <c r="X28" t="n">
         <v>3.5</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
         <v>1.83</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>1.83</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AA28" t="n">
         <v>8</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AB28" t="n">
         <v>7</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AC28" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AD28" t="n">
         <v>9</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AE28" t="n">
         <v>11</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AF28" t="n">
         <v>23</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AG28" t="n">
         <v>17</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AH28" t="n">
         <v>10</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>21</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AJ28" t="n">
         <v>51</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AK28" t="n">
         <v>251</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>41</v>
       </c>
       <c r="AL28" t="n">
         <v>21</v>
       </c>
       <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO28" t="n">
         <v>81</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AP28" t="n">
         <v>51</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AQ28" t="n">
         <v>51</v>
       </c>
-      <c r="AP28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
+      <c r="AR28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4571,28 +4575,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H29" t="n">
         <v>5.25</v>
       </c>
       <c r="I29" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="n">
         <v>2.88</v>
       </c>
       <c r="L29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O29" t="n">
         <v>1.07</v>
@@ -4600,83 +4604,83 @@
       <c r="P29" t="n">
         <v>9</v>
       </c>
-      <c r="Q29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.67</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>2.1</v>
       </c>
-      <c r="U29" t="n">
+      <c r="W29" t="n">
         <v>1.17</v>
       </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
         <v>5</v>
       </c>
-      <c r="W29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>1.36</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AB29" t="n">
         <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD29" t="n">
         <v>15</v>
       </c>
       <c r="AE29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG29" t="n">
         <v>34</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AH29" t="n">
         <v>12</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>13</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>81</v>
       </c>
       <c r="AJ29" t="n">
         <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN29" t="n">
         <v>17</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AO29" t="n">
         <v>51</v>
       </c>
-      <c r="AN29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO29" t="n">
+      <c r="AP29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>26</v>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
     </row>
@@ -4741,83 +4745,83 @@
       <c r="P30" t="n">
         <v>4</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
         <v>1.73</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>2.08</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>2.75</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>1.4</v>
       </c>
-      <c r="U30" t="n">
+      <c r="W30" t="n">
         <v>1.33</v>
       </c>
-      <c r="V30" t="n">
+      <c r="X30" t="n">
         <v>3.25</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>1.62</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>2.2</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AA30" t="n">
         <v>12</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AB30" t="n">
         <v>17</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AC30" t="n">
         <v>11</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AD30" t="n">
         <v>34</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AE30" t="n">
         <v>23</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AF30" t="n">
         <v>29</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>7</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
       </c>
       <c r="AH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>41</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AK30" t="n">
         <v>151</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>9</v>
       </c>
       <c r="AM30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO30" t="n">
         <v>21</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AP30" t="n">
         <v>17</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AQ30" t="n">
         <v>23</v>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
     </row>
@@ -4853,13 +4857,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4871,10 +4875,10 @@
         <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
@@ -4883,91 +4887,91 @@
         <v>3.25</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S31" t="n">
         <v>2.15</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>1.67</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>3.75</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>1.25</v>
       </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
         <v>1.44</v>
       </c>
-      <c r="V31" t="n">
+      <c r="X31" t="n">
         <v>2.63</v>
       </c>
-      <c r="W31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Y31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA31" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AB31" t="n">
         <v>13</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AC31" t="n">
         <v>11</v>
       </c>
-      <c r="AB31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE31" t="n">
         <v>23</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AF31" t="n">
         <v>34</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AG31" t="n">
         <v>8</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AH31" t="n">
         <v>5.5</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>13</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AJ31" t="n">
         <v>51</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AK31" t="n">
         <v>251</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AL31" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AM31" t="n">
         <v>13</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AN31" t="n">
         <v>11</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AO31" t="n">
         <v>26</v>
       </c>
-      <c r="AN31" t="n">
+      <c r="AP31" t="n">
         <v>23</v>
       </c>
-      <c r="AO31" t="n">
+      <c r="AQ31" t="n">
         <v>34</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AR31" t="n">
         <v>3.15</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AS31" t="n">
-        <v>2.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="32">
@@ -5002,112 +5006,112 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
         <v>2.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X32" t="n">
         <v>3</v>
       </c>
-      <c r="T32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X32" t="n">
-        <v>2.05</v>
-      </c>
       <c r="Y32" t="n">
-        <v>8</v>
+        <v>1.67</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="AA32" t="n">
         <v>8.5</v>
       </c>
       <c r="AB32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD32" t="n">
         <v>17</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AE32" t="n">
         <v>15</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AF32" t="n">
         <v>23</v>
       </c>
-      <c r="AE32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI32" t="n">
         <v>13</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AJ32" t="n">
         <v>41</v>
       </c>
-      <c r="AI32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ32" t="n">
+      <c r="AK32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL32" t="n">
         <v>12</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AM32" t="n">
         <v>21</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AN32" t="n">
         <v>13</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AO32" t="n">
         <v>41</v>
       </c>
-      <c r="AN32" t="n">
+      <c r="AP32" t="n">
         <v>29</v>
       </c>
-      <c r="AO32" t="n">
+      <c r="AQ32" t="n">
         <v>34</v>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
     </row>
@@ -5149,7 +5153,7 @@
         <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J33" t="n">
         <v>5.5</v>
@@ -5164,7 +5168,7 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -5172,83 +5176,83 @@
       <c r="P33" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
         <v>2.05</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>1.75</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>3.5</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>1.29</v>
       </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
         <v>1.44</v>
       </c>
-      <c r="V33" t="n">
+      <c r="X33" t="n">
         <v>2.63</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Y33" t="n">
         <v>2</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.73</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AA33" t="n">
         <v>11</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AB33" t="n">
         <v>23</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AC33" t="n">
         <v>15</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AD33" t="n">
         <v>51</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AE33" t="n">
         <v>41</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AF33" t="n">
         <v>41</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AG33" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AH33" t="n">
         <v>7.5</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>19</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>67</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AK33" t="n">
         <v>351</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AL33" t="n">
         <v>6.5</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AM33" t="n">
         <v>7.5</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AN33" t="n">
         <v>8.5</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AO33" t="n">
         <v>13</v>
       </c>
-      <c r="AN33" t="n">
+      <c r="AP33" t="n">
         <v>15</v>
       </c>
-      <c r="AO33" t="n">
+      <c r="AQ33" t="n">
         <v>29</v>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
     </row>
@@ -5296,10 +5300,10 @@
         <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5308,94 +5312,94 @@
         <v>6.5</v>
       </c>
       <c r="O34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.5</v>
       </c>
-      <c r="P34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>5</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>1.17</v>
       </c>
-      <c r="U34" t="n">
+      <c r="W34" t="n">
         <v>1.57</v>
       </c>
-      <c r="V34" t="n">
+      <c r="X34" t="n">
         <v>2.25</v>
       </c>
-      <c r="W34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Y34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA34" t="n">
         <v>6</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AB34" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AC34" t="n">
         <v>10</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AD34" t="n">
         <v>21</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AE34" t="n">
         <v>21</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AF34" t="n">
         <v>41</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AG34" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AH34" t="n">
         <v>6</v>
       </c>
-      <c r="AG34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>67</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AK34" t="n">
         <v>501</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AL34" t="n">
         <v>8</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AM34" t="n">
         <v>15</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AN34" t="n">
         <v>13</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>34</v>
       </c>
       <c r="AO34" t="n">
         <v>41</v>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1.93</v>
-      </c>
+      <c r="AP34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5429,22 +5433,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
@@ -5458,83 +5462,83 @@
       <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
         <v>2.15</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>1.67</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>4</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>1.22</v>
       </c>
-      <c r="U35" t="n">
+      <c r="W35" t="n">
         <v>1.44</v>
       </c>
-      <c r="V35" t="n">
+      <c r="X35" t="n">
         <v>2.63</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>1.91</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH35" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB35" t="n">
+      <c r="AI35" t="n">
         <v>17</v>
       </c>
-      <c r="AC35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AJ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO35" t="n">
         <v>34</v>
       </c>
-      <c r="AE35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM35" t="n">
+      <c r="AP35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>41</v>
       </c>
-      <c r="AN35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
     </row>
@@ -5570,112 +5574,112 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="J36" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L36" t="n">
         <v>5.1</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.75</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
-        <v>3.35</v>
+        <v>1.93</v>
       </c>
       <c r="T36" t="n">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="U36" t="n">
-        <v>1.39</v>
+        <v>3.25</v>
       </c>
       <c r="V36" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.95</v>
+        <v>1.37</v>
       </c>
       <c r="X36" t="n">
-        <v>1.75</v>
+        <v>2.85</v>
       </c>
       <c r="Y36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA36" t="n">
         <v>6.2</v>
       </c>
-      <c r="Z36" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA36" t="n">
+      <c r="AB36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC36" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AD36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL36" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>900</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>16</v>
-      </c>
       <c r="AM36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO36" t="n">
         <v>90</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AP36" t="n">
         <v>55</v>
       </c>
-      <c r="AO36" t="n">
+      <c r="AQ36" t="n">
         <v>60</v>
       </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
     </row>
@@ -5740,83 +5744,83 @@
       <c r="P37" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
         <v>2.4</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
         <v>1.5</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>4.3</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>1.18</v>
       </c>
-      <c r="U37" t="n">
+      <c r="W37" t="n">
         <v>1.53</v>
       </c>
-      <c r="V37" t="n">
+      <c r="X37" t="n">
         <v>2.35</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Y37" t="n">
         <v>2.1</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.65</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AA37" t="n">
         <v>9</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AB37" t="n">
         <v>22</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AC37" t="n">
         <v>15</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AD37" t="n">
         <v>75</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AE37" t="n">
         <v>50</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AF37" t="n">
         <v>65</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AG37" t="n">
         <v>5.6</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AH37" t="n">
         <v>6</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AI37" t="n">
         <v>18.5</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AJ37" t="n">
         <v>120</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AK37" t="n">
         <v>900</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AL37" t="n">
         <v>5.4</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AM37" t="n">
         <v>7.9</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AN37" t="n">
         <v>8.75</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AO37" t="n">
         <v>16.5</v>
       </c>
-      <c r="AN37" t="n">
+      <c r="AP37" t="n">
         <v>18.5</v>
       </c>
-      <c r="AO37" t="n">
+      <c r="AQ37" t="n">
         <v>40</v>
       </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
     </row>
@@ -5852,22 +5856,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="K38" t="n">
         <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -5881,83 +5885,83 @@
       <c r="P38" t="n">
         <v>2.92</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
         <v>2.05</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T38" t="n">
         <v>1.7</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>3.45</v>
       </c>
-      <c r="T38" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.4</v>
-      </c>
       <c r="V38" t="n">
-        <v>2.7</v>
+        <v>1.27</v>
       </c>
       <c r="W38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.8</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.91</v>
       </c>
-      <c r="Y38" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB38" t="n">
         <v>10.75</v>
       </c>
-      <c r="AA38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>23</v>
-      </c>
       <c r="AC38" t="n">
-        <v>19</v>
+        <v>8.75</v>
       </c>
       <c r="AD38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP38" t="n">
         <v>30</v>
       </c>
-      <c r="AE38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
+      <c r="AQ38" t="n">
+        <v>40</v>
+      </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
     </row>
@@ -6022,83 +6026,83 @@
       <c r="P39" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
         <v>2</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>1.85</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>3.4</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>1.3</v>
       </c>
-      <c r="U39" t="n">
+      <c r="W39" t="n">
         <v>1.4</v>
       </c>
-      <c r="V39" t="n">
+      <c r="X39" t="n">
         <v>2.75</v>
       </c>
-      <c r="W39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Y39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA39" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AB39" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AC39" t="n">
         <v>9</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AD39" t="n">
         <v>17</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AE39" t="n">
         <v>17</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AF39" t="n">
         <v>26</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AG39" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AH39" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AI39" t="n">
         <v>15</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AJ39" t="n">
         <v>51</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AK39" t="n">
         <v>201</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AL39" t="n">
         <v>11</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AM39" t="n">
         <v>19</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AN39" t="n">
         <v>13</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>29</v>
       </c>
       <c r="AO39" t="n">
         <v>41</v>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>41</v>
+      </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
     </row>
@@ -6134,22 +6138,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.15</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
@@ -6163,83 +6167,83 @@
       <c r="P40" t="n">
         <v>3.35</v>
       </c>
-      <c r="Q40" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R40" t="n">
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.88</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>2.9</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>1.36</v>
       </c>
-      <c r="U40" t="n">
+      <c r="W40" t="n">
         <v>1.42</v>
       </c>
-      <c r="V40" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y40" t="n">
         <v>1.6</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>2.2</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AA40" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AB40" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG40" t="n">
         <v>7.2</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AH40" t="n">
         <v>5.9</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AI40" t="n">
         <v>11.25</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AJ40" t="n">
         <v>45</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AK40" t="n">
         <v>300</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK40" t="n">
+      <c r="AL40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM40" t="n">
         <v>13</v>
       </c>
-      <c r="AL40" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AM40" t="n">
+      <c r="AN40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO40" t="n">
         <v>28</v>
       </c>
-      <c r="AN40" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
+      <c r="AP40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>25</v>
+      </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
     </row>
@@ -6275,13 +6279,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
         <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J41" t="n">
         <v>4.33</v>
@@ -6304,89 +6308,89 @@
       <c r="P41" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="n">
         <v>1.5</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>2.5</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>2.2</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>1.62</v>
       </c>
-      <c r="U41" t="n">
+      <c r="W41" t="n">
         <v>1.25</v>
       </c>
-      <c r="V41" t="n">
+      <c r="X41" t="n">
         <v>3.75</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Y41" t="n">
         <v>1.5</v>
       </c>
-      <c r="X41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA41" t="n">
         <v>17</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AB41" t="n">
         <v>26</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AC41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI41" t="n">
         <v>13</v>
       </c>
-      <c r="AB41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE41" t="n">
+      <c r="AJ41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ41" t="n">
         <v>19</v>
       </c>
-      <c r="AF41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP41" t="n">
+      <c r="AR41" t="n">
         <v>1.8</v>
       </c>
-      <c r="AQ41" t="n">
+      <c r="AS41" t="n">
         <v>2.05</v>
       </c>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6449,83 +6453,83 @@
       <c r="P42" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="n">
         <v>1.8</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>2</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>3</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>1.36</v>
       </c>
-      <c r="U42" t="n">
+      <c r="W42" t="n">
         <v>1.36</v>
       </c>
-      <c r="V42" t="n">
+      <c r="X42" t="n">
         <v>3</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Y42" t="n">
         <v>1.62</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>2.2</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AA42" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AB42" t="n">
         <v>13</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AC42" t="n">
         <v>10</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AD42" t="n">
         <v>23</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AE42" t="n">
         <v>19</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AF42" t="n">
         <v>26</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AG42" t="n">
         <v>12</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AH42" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AI42" t="n">
         <v>13</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AJ42" t="n">
         <v>41</v>
       </c>
-      <c r="AI42" t="n">
+      <c r="AK42" t="n">
         <v>151</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>15</v>
       </c>
       <c r="AL42" t="n">
         <v>10</v>
       </c>
       <c r="AM42" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AN42" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AO42" t="n">
         <v>29</v>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
+      <c r="AP42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>29</v>
+      </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
     </row>
@@ -6561,22 +6565,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
@@ -6585,88 +6589,88 @@
         <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.78</v>
-      </c>
+        <v>3.25</v>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="U43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W43" t="n">
         <v>1.44</v>
       </c>
-      <c r="V43" t="n">
+      <c r="X43" t="n">
         <v>2.63</v>
       </c>
-      <c r="W43" t="n">
+      <c r="Y43" t="n">
         <v>1.8</v>
       </c>
-      <c r="X43" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z43" t="n">
-        <v>13</v>
+        <v>1.8</v>
       </c>
       <c r="AA43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC43" t="n">
         <v>10</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AD43" t="n">
         <v>26</v>
       </c>
-      <c r="AC43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>29</v>
-      </c>
       <c r="AE43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN43" t="n">
         <v>10</v>
       </c>
-      <c r="AF43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM43" t="n">
+      <c r="AO43" t="n">
         <v>26</v>
       </c>
-      <c r="AN43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+      <c r="AP43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>34</v>
+      </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
     </row>
@@ -6702,10 +6706,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
         <v>7.5</v>
@@ -6720,10 +6724,10 @@
         <v>7.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -6731,83 +6735,83 @@
       <c r="P44" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q44" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.73</v>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U44" t="n">
         <v>3.75</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>1.25</v>
       </c>
-      <c r="U44" t="n">
+      <c r="W44" t="n">
         <v>1.44</v>
       </c>
-      <c r="V44" t="n">
+      <c r="X44" t="n">
         <v>2.63</v>
       </c>
-      <c r="W44" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Y44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA44" t="n">
         <v>5.5</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AB44" t="n">
         <v>6</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AC44" t="n">
         <v>9</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AD44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG44" t="n">
         <v>9</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AH44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL44" t="n">
         <v>15</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AM44" t="n">
         <v>41</v>
       </c>
-      <c r="AE44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG44" t="n">
+      <c r="AN44" t="n">
         <v>23</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AO44" t="n">
         <v>81</v>
       </c>
-      <c r="AI44" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN44" t="n">
+      <c r="AP44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ44" t="n">
         <v>67</v>
       </c>
-      <c r="AO44" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
     </row>
@@ -6872,83 +6876,83 @@
       <c r="P45" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="n">
         <v>1.95</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>1.85</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>3.4</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>1.3</v>
       </c>
-      <c r="U45" t="n">
+      <c r="W45" t="n">
         <v>1.4</v>
       </c>
-      <c r="V45" t="n">
+      <c r="X45" t="n">
         <v>2.75</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Y45" t="n">
         <v>1.73</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>2</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AA45" t="n">
         <v>9</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AB45" t="n">
         <v>12</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AC45" t="n">
         <v>10</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AD45" t="n">
         <v>23</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AE45" t="n">
         <v>21</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AF45" t="n">
         <v>29</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AG45" t="n">
         <v>10</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AH45" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AI45" t="n">
         <v>13</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AJ45" t="n">
         <v>41</v>
       </c>
-      <c r="AI45" t="n">
+      <c r="AK45" t="n">
         <v>201</v>
       </c>
-      <c r="AJ45" t="n">
+      <c r="AL45" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK45" t="n">
+      <c r="AM45" t="n">
         <v>13</v>
       </c>
-      <c r="AL45" t="n">
+      <c r="AN45" t="n">
         <v>11</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>21</v>
       </c>
       <c r="AO45" t="n">
         <v>29</v>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
+      <c r="AP45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>29</v>
+      </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
     </row>
@@ -7009,83 +7013,83 @@
       <c r="P46" t="n">
         <v>2.47</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="n">
         <v>2.2</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T46" t="n">
         <v>1.53</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>3.65</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>1.19</v>
       </c>
-      <c r="U46" t="n">
+      <c r="W46" t="n">
         <v>1.47</v>
       </c>
-      <c r="V46" t="n">
+      <c r="X46" t="n">
         <v>2.32</v>
       </c>
-      <c r="W46" t="n">
+      <c r="Y46" t="n">
         <v>1.85</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>1.75</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AA46" t="n">
         <v>7.1</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AB46" t="n">
         <v>13</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AC46" t="n">
         <v>10.75</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AD46" t="n">
         <v>35</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AE46" t="n">
         <v>29</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AF46" t="n">
         <v>45</v>
       </c>
-      <c r="AE46" t="n">
+      <c r="AG46" t="n">
         <v>7</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AH46" t="n">
         <v>5.6</v>
       </c>
-      <c r="AG46" t="n">
+      <c r="AI46" t="n">
         <v>15</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AJ46" t="n">
         <v>80</v>
       </c>
-      <c r="AI46" t="n">
+      <c r="AK46" t="n">
         <v>800</v>
       </c>
-      <c r="AJ46" t="n">
+      <c r="AL46" t="n">
         <v>7.3</v>
       </c>
-      <c r="AK46" t="n">
+      <c r="AM46" t="n">
         <v>12.5</v>
       </c>
-      <c r="AL46" t="n">
+      <c r="AN46" t="n">
         <v>9.75</v>
       </c>
-      <c r="AM46" t="n">
+      <c r="AO46" t="n">
         <v>30</v>
       </c>
-      <c r="AN46" t="n">
+      <c r="AP46" t="n">
         <v>24</v>
       </c>
-      <c r="AO46" t="n">
+      <c r="AQ46" t="n">
         <v>35</v>
       </c>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.6</v>
@@ -710,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -740,16 +740,16 @@
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y2" t="n">
         <v>2.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA2" t="n">
         <v>5.5</v>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>51</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
         <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -982,22 +982,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1036,10 +1036,10 @@
         <v>2.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA4" t="n">
         <v>5</v>
@@ -1054,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
         <v>17</v>
@@ -1087,7 +1087,7 @@
         <v>51</v>
       </c>
       <c r="AP4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
@@ -1188,13 +1188,13 @@
         <v>2.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>6.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>4.9</v>
@@ -1280,34 +1280,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
@@ -1337,7 +1337,7 @@
         <v>2.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6.5</v>
@@ -1358,7 +1358,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1376,13 +1376,13 @@
         <v>5.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1391,10 +1391,10 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="7">
@@ -1578,13 +1578,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1593,13 +1593,13 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1632,13 +1632,13 @@
         <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1671,7 +1671,7 @@
         <v>451</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM8" t="n">
         <v>23</v>
@@ -1683,7 +1683,7 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1875,19 +1875,19 @@
         <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>1.8</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.17</v>
@@ -1928,7 +1928,7 @@
         <v>1.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AB10" t="n">
         <v>7</v>
@@ -1946,7 +1946,7 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AH10" t="n">
         <v>6.5</v>
@@ -1964,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
         <v>21</v>
@@ -2295,22 +2295,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.65</v>
+        <v>4.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -2318,7 +2318,7 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -2329,73 +2329,73 @@
         <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AC13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AE13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF13" t="n">
         <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
         <v>6.8</v>
       </c>
       <c r="AI13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>90</v>
       </c>
       <c r="AK13" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL13" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2432,22 +2432,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2464,10 +2464,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
         <v>3.25</v>
@@ -2488,19 +2488,19 @@
         <v>2</v>
       </c>
       <c r="AA14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>26</v>
@@ -2512,31 +2512,31 @@
         <v>6.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK14" t="n">
         <v>201</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="n">
         <v>34</v>
       </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2609,16 +2609,16 @@
         <v>2.55</v>
       </c>
       <c r="S15" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2746,10 +2746,10 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
         <v>1.49</v>
@@ -2758,10 +2758,10 @@
         <v>2.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
         <v>3.4</v>
@@ -2889,10 +2889,10 @@
         <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.53</v>
@@ -2901,10 +2901,10 @@
         <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
         <v>2.7</v>
@@ -3050,10 +3050,10 @@
         <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
         <v>2.7</v>
@@ -3169,22 +3169,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3193,18 +3193,18 @@
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T19" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>3.25</v>
@@ -3219,10 +3219,10 @@
         <v>2.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA19" t="n">
         <v>9</v>
@@ -3234,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3310,22 +3310,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
         <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
         <v>2.25</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3334,24 +3334,24 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
         <v>1.33</v>
@@ -3360,16 +3360,16 @@
         <v>3.25</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB20" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9</v>
       </c>
       <c r="AC20" t="n">
         <v>8.5</v>
@@ -3381,22 +3381,22 @@
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>7.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -3411,10 +3411,10 @@
         <v>51</v>
       </c>
       <c r="AP20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3451,28 +3451,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="I21" t="n">
         <v>4.45</v>
       </c>
       <c r="J21" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="K21" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N21" t="n">
         <v>5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.55</v>
@@ -3483,10 +3483,10 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="T21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="U21" t="n">
         <v>4.75</v>
@@ -3501,22 +3501,22 @@
         <v>2.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AB21" t="n">
         <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -3525,37 +3525,37 @@
         <v>45</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AI21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="n">
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
         <v>23</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ21" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
         <v>1.75</v>
@@ -3745,7 +3745,7 @@
         <v>5.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L23" t="n">
         <v>2.37</v>
@@ -3754,7 +3754,7 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -3771,16 +3771,16 @@
         <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y23" t="n">
         <v>2.27</v>
@@ -3789,7 +3789,7 @@
         <v>1.57</v>
       </c>
       <c r="AA23" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
         <v>26</v>
@@ -3807,7 +3807,7 @@
         <v>80</v>
       </c>
       <c r="AG23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AH23" t="n">
         <v>6.6</v>
@@ -3825,7 +3825,7 @@
         <v>5</v>
       </c>
       <c r="AM23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AN23" t="n">
         <v>9</v>
@@ -3877,7 +3877,7 @@
         <v>1.53</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
         <v>6.25</v>
@@ -3918,10 +3918,10 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>1.91</v>
@@ -3948,10 +3948,10 @@
         <v>29</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>19</v>
@@ -4015,16 +4015,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
@@ -4077,10 +4077,10 @@
         <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>21</v>
@@ -4104,13 +4104,13 @@
         <v>301</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>34</v>
@@ -4119,7 +4119,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4462,16 +4462,16 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.53</v>
       </c>
       <c r="W28" t="n">
         <v>1.29</v>
@@ -4537,10 +4537,10 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS28" t="n">
         <v>1.98</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>1.88</v>
       </c>
     </row>
     <row r="29">
@@ -4575,48 +4575,48 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I29" t="n">
         <v>5.25</v>
       </c>
-      <c r="I29" t="n">
-        <v>4.75</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="K29" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W29" t="n">
         <v>1.17</v>
@@ -4637,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>15</v>
@@ -4652,7 +4652,7 @@
         <v>34</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>13</v>
@@ -4667,16 +4667,16 @@
         <v>29</v>
       </c>
       <c r="AM29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>51</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ29" t="n">
         <v>26</v>
@@ -4748,10 +4748,10 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U30" t="n">
         <v>2.75</v>
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4875,10 +4875,10 @@
         <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
@@ -4911,10 +4911,10 @@
         <v>2.63</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA31" t="n">
         <v>8.5</v>
@@ -4959,7 +4959,7 @@
         <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
@@ -5006,19 +5006,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.6</v>
       </c>
       <c r="J32" t="n">
         <v>2.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
@@ -5030,42 +5030,42 @@
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
         <v>8.5</v>
@@ -5077,10 +5077,10 @@
         <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
         <v>7</v>
@@ -5095,22 +5095,22 @@
         <v>151</v>
       </c>
       <c r="AL32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM32" t="n">
         <v>21</v>
       </c>
       <c r="AN32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>
       </c>
       <c r="AP32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>34</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5153,7 +5153,7 @@
         <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J33" t="n">
         <v>5.5</v>
@@ -5185,10 +5185,10 @@
         <v>1.75</v>
       </c>
       <c r="U33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
         <v>1.44</v>
@@ -5288,16 +5288,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>1.95</v>
@@ -5306,10 +5306,10 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -5318,22 +5318,22 @@
         <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W34" t="n">
         <v>1.57</v>
@@ -5348,10 +5348,10 @@
         <v>1.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC34" t="n">
         <v>10</v>
@@ -5366,7 +5366,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH34" t="n">
         <v>6</v>
@@ -5387,10 +5387,10 @@
         <v>15</v>
       </c>
       <c r="AN34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP34" t="n">
         <v>34</v>
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
         <v>3.2</v>
@@ -5451,10 +5451,10 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -5471,10 +5471,10 @@
         <v>1.67</v>
       </c>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
         <v>1.44</v>
@@ -5483,22 +5483,22 @@
         <v>2.63</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA35" t="n">
         <v>7</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
         <v>9.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
         <v>19</v>
@@ -5507,7 +5507,7 @@
         <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH35" t="n">
         <v>6.5</v>
@@ -5522,7 +5522,7 @@
         <v>351</v>
       </c>
       <c r="AL35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM35" t="n">
         <v>15</v>
@@ -5574,34 +5574,34 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
         <v>2.15</v>
       </c>
       <c r="K36" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L36" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -5612,7 +5612,7 @@
         <v>1.78</v>
       </c>
       <c r="U36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V36" t="n">
         <v>1.3</v>
@@ -5621,19 +5621,19 @@
         <v>1.37</v>
       </c>
       <c r="X36" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AC36" t="n">
         <v>8.25</v>
@@ -5648,13 +5648,13 @@
         <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AH36" t="n">
         <v>7.1</v>
       </c>
       <c r="AI36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
         <v>90</v>
@@ -5666,19 +5666,19 @@
         <v>12.5</v>
       </c>
       <c r="AM36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO36" t="n">
         <v>90</v>
       </c>
       <c r="AP36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ36" t="n">
         <v>55</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>60</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5715,111 +5715,111 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="J37" t="n">
-        <v>4.85</v>
+        <v>4.3</v>
       </c>
       <c r="K37" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="L37" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="T37" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="U37" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="V37" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="W37" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AA37" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AB37" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AE37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF37" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AG37" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="AH37" t="n">
         <v>6</v>
       </c>
       <c r="AI37" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AJ37" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AL37" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="AM37" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AN37" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AP37" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5877,42 +5877,42 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P38" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T38" t="n">
         <v>1.7</v>
       </c>
       <c r="U38" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="V38" t="n">
         <v>1.27</v>
       </c>
       <c r="W38" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X38" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA38" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB38" t="n">
         <v>10.75</v>
@@ -5930,22 +5930,22 @@
         <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH38" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK38" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL38" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM38" t="n">
         <v>16.5</v>
@@ -5960,7 +5960,7 @@
         <v>30</v>
       </c>
       <c r="AQ38" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -6006,13 +6006,13 @@
         <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K39" t="n">
         <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -6047,10 +6047,10 @@
         <v>2.75</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AA39" t="n">
         <v>7.5</v>
@@ -6077,10 +6077,10 @@
         <v>6.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK39" t="n">
         <v>201</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
         <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J41" t="n">
         <v>4.33</v>
@@ -6294,7 +6294,7 @@
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -6332,16 +6332,16 @@
         <v>1.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="AA41" t="n">
         <v>17</v>
       </c>
       <c r="AB41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
         <v>41</v>
@@ -6371,7 +6371,7 @@
         <v>11</v>
       </c>
       <c r="AM41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN41" t="n">
         <v>8.5</v>
@@ -6565,16 +6565,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
         <v>2.05</v>
@@ -6583,16 +6583,16 @@
         <v>3.4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -6615,10 +6615,10 @@
         <v>2.63</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA43" t="n">
         <v>8</v>
@@ -6633,13 +6633,13 @@
         <v>26</v>
       </c>
       <c r="AE43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF43" t="n">
         <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH43" t="n">
         <v>6</v>
@@ -6657,10 +6657,10 @@
         <v>8</v>
       </c>
       <c r="AM43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO43" t="n">
         <v>26</v>
@@ -6706,72 +6706,72 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H44" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J44" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="K44" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W44" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X44" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA44" t="n">
         <v>5.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC44" t="n">
         <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE44" t="n">
         <v>13</v>
@@ -6783,10 +6783,10 @@
         <v>9</v>
       </c>
       <c r="AH44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ44" t="n">
         <v>81</v>
@@ -6795,19 +6795,19 @@
         <v>351</v>
       </c>
       <c r="AL44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM44" t="n">
         <v>41</v>
       </c>
       <c r="AN44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO44" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ44" t="n">
         <v>67</v>
@@ -6847,22 +6847,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -6903,19 +6903,19 @@
         <v>2</v>
       </c>
       <c r="AA45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB45" t="n">
         <v>12</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD45" t="n">
         <v>23</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="n">
         <v>29</v>
@@ -6939,7 +6939,7 @@
         <v>9.5</v>
       </c>
       <c r="AM45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN45" t="n">
         <v>11</v>
@@ -6948,7 +6948,7 @@
         <v>29</v>
       </c>
       <c r="AP45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ45" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -722,10 +722,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="S2" t="n">
         <v>2.38</v>
@@ -770,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>6.5</v>
@@ -837,19 +837,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
         <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
         <v>9</v>
@@ -861,18 +861,18 @@
         <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -887,19 +887,19 @@
         <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>8.5</v>
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -917,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -926,19 +926,19 @@
         <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1012,10 +1012,10 @@
         <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>2.7</v>
@@ -1030,10 +1030,10 @@
         <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y4" t="n">
         <v>2.38</v>
@@ -1054,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1066,10 +1066,10 @@
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="n">
         <v>101</v>
@@ -1140,7 +1140,7 @@
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1149,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1185,10 +1185,10 @@
         <v>2.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1197,10 +1197,10 @@
         <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1224,7 +1224,7 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM5" t="n">
         <v>13</v>
@@ -1242,7 +1242,7 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
         <v>1.18</v>
@@ -1283,31 +1283,31 @@
         <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.8</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
@@ -1316,28 +1316,28 @@
         <v>1.78</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA6" t="n">
         <v>6.5</v>
@@ -1358,7 +1358,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1367,22 +1367,22 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="n">
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1391,10 +1391,10 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>2.8</v>
@@ -1438,10 +1438,10 @@
         <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
         <v>4.75</v>
@@ -1450,7 +1450,7 @@
         <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.73</v>
@@ -1492,7 +1492,7 @@
         <v>4.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
@@ -1501,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1528,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -1578,28 +1578,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1608,22 +1608,22 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
         <v>1.53</v>
@@ -1632,22 +1632,22 @@
         <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1656,43 +1656,43 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="n">
         <v>451</v>
       </c>
       <c r="AL8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP8" t="n">
         <v>51</v>
       </c>
-      <c r="AP8" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9">
@@ -1875,7 +1875,7 @@
         <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
         <v>5.5</v>
@@ -1884,7 +1884,7 @@
         <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -1904,10 +1904,10 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U10" t="n">
         <v>7</v>
@@ -2464,16 +2464,16 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
         <v>1.4</v>
@@ -2573,28 +2573,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -2603,10 +2603,10 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R15" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="S15" t="n">
         <v>2.03</v>
@@ -2627,22 +2627,22 @@
         <v>2.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -2651,7 +2651,7 @@
         <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
@@ -2666,28 +2666,28 @@
         <v>251</v>
       </c>
       <c r="AL15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>34</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
       <c r="AR15" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="16">
@@ -2874,49 +2874,49 @@
         <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
         <v>1.62</v>
@@ -2937,34 +2937,34 @@
         <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="n">
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
         <v>11</v>
@@ -2982,10 +2982,10 @@
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="18">
@@ -3169,22 +3169,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3193,18 +3193,18 @@
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U19" t="n">
         <v>3.25</v>
@@ -3225,28 +3225,28 @@
         <v>2.05</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
@@ -3258,22 +3258,22 @@
         <v>201</v>
       </c>
       <c r="AL19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>26</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>29</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3592,111 +3592,111 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J22" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L22" t="n">
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="N22" t="n">
-        <v>4.35</v>
+        <v>4.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P22" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="U22" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="X22" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AA22" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AB22" t="n">
         <v>8.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG22" t="n">
-        <v>4.35</v>
+        <v>4.05</v>
       </c>
       <c r="AH22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="n">
         <v>101</v>
       </c>
       <c r="AL22" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO22" t="n">
         <v>80</v>
       </c>
       <c r="AP22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3733,111 +3733,111 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X23" t="n">
         <v>2.42</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X23" t="n">
-        <v>2.35</v>
-      </c>
       <c r="Y23" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
         <v>17.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE23" t="n">
         <v>65</v>
       </c>
       <c r="AF23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="n">
         <v>101</v>
       </c>
       <c r="AL23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AM23" t="n">
         <v>6.7</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -3877,7 +3877,7 @@
         <v>1.53</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
         <v>6.25</v>
@@ -3918,10 +3918,10 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y24" t="n">
         <v>1.91</v>
@@ -3948,10 +3948,10 @@
         <v>29</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI24" t="n">
         <v>19</v>
@@ -4036,7 +4036,7 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4430,28 +4430,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.8</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O28" t="n">
         <v>1.17</v>
@@ -4486,16 +4486,16 @@
         <v>1.83</v>
       </c>
       <c r="AA28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB28" t="n">
         <v>7</v>
       </c>
       <c r="AC28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD28" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -4507,7 +4507,7 @@
         <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>21</v>
@@ -4525,10 +4525,10 @@
         <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP28" t="n">
         <v>51</v>
@@ -4575,13 +4575,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H29" t="n">
         <v>5.5</v>
       </c>
       <c r="I29" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.83</v>
@@ -4596,7 +4596,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O29" t="n">
         <v>1.06</v>
@@ -4607,10 +4607,10 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T29" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="U29" t="n">
         <v>1.62</v>
@@ -4625,10 +4625,10 @@
         <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA29" t="n">
         <v>17</v>
@@ -4637,10 +4637,10 @@
         <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -4655,13 +4655,13 @@
         <v>13</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -4673,13 +4673,13 @@
         <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP29" t="n">
         <v>34</v>
       </c>
       <c r="AQ29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -5006,16 +5006,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K32" t="n">
         <v>2.3</v>
@@ -5062,10 +5062,10 @@
         <v>2.2</v>
       </c>
       <c r="AA32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
         <v>8.5</v>
@@ -5101,13 +5101,13 @@
         <v>21</v>
       </c>
       <c r="AN32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>
       </c>
       <c r="AP32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ32" t="n">
         <v>29</v>
@@ -5153,13 +5153,13 @@
         <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J33" t="n">
         <v>5.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L33" t="n">
         <v>2.3</v>
@@ -5185,10 +5185,10 @@
         <v>1.75</v>
       </c>
       <c r="U33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
         <v>1.44</v>
@@ -5236,7 +5236,7 @@
         <v>351</v>
       </c>
       <c r="AL33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM33" t="n">
         <v>7.5</v>
@@ -5245,7 +5245,7 @@
         <v>8.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP33" t="n">
         <v>15</v>
@@ -5288,13 +5288,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.2</v>
@@ -5318,10 +5318,10 @@
         <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="n">
         <v>2.4</v>
@@ -5336,16 +5336,16 @@
         <v>1.18</v>
       </c>
       <c r="W34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X34" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -5357,7 +5357,7 @@
         <v>10</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
         <v>21</v>
@@ -5378,7 +5378,7 @@
         <v>67</v>
       </c>
       <c r="AK34" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL34" t="n">
         <v>8</v>
@@ -5393,7 +5393,7 @@
         <v>34</v>
       </c>
       <c r="AP34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ34" t="n">
         <v>41</v>
@@ -5433,13 +5433,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
         <v>2.88</v>
@@ -5454,7 +5454,7 @@
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -5471,10 +5471,10 @@
         <v>1.67</v>
       </c>
       <c r="U35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W35" t="n">
         <v>1.44</v>
@@ -5483,22 +5483,22 @@
         <v>2.63</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA35" t="n">
         <v>7</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC35" t="n">
         <v>9.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="n">
         <v>19</v>
@@ -5525,13 +5525,13 @@
         <v>9</v>
       </c>
       <c r="AM35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN35" t="n">
         <v>12</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP35" t="n">
         <v>29</v>
@@ -5856,28 +5856,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="K38" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="O38" t="n">
         <v>1.35</v>
@@ -5903,7 +5903,7 @@
         <v>1.4</v>
       </c>
       <c r="X38" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Y38" t="n">
         <v>1.78</v>
@@ -5915,28 +5915,28 @@
         <v>7.4</v>
       </c>
       <c r="AB38" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE38" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG38" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AH38" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI38" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ38" t="n">
         <v>65</v>
@@ -5945,22 +5945,22 @@
         <v>500</v>
       </c>
       <c r="AL38" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM38" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN38" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AP38" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AQ38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -6015,30 +6015,30 @@
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T39" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W39" t="n">
         <v>1.4</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="G41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H41" t="n">
         <v>4</v>
       </c>
-      <c r="H41" t="n">
-        <v>4.1</v>
-      </c>
       <c r="I41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J41" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>2.5</v>
@@ -6347,19 +6347,19 @@
         <v>41</v>
       </c>
       <c r="AE41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG41" t="n">
         <v>19</v>
       </c>
       <c r="AH41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ41" t="n">
         <v>34</v>
@@ -6377,10 +6377,10 @@
         <v>8.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ41" t="n">
         <v>19</v>
@@ -6738,16 +6738,16 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
         <v>1.4</v>
@@ -6847,16 +6847,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H45" t="n">
         <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
@@ -6865,10 +6865,10 @@
         <v>3.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
         <v>1.29</v>
@@ -6988,19 +6988,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H46" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I46" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="J46" t="n">
         <v>3.5</v>
       </c>
       <c r="K46" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L46" t="n">
         <v>3.2</v>
@@ -7011,21 +7011,21 @@
         <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U46" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="V46" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W46" t="n">
         <v>1.47</v>
@@ -7034,61 +7034,61 @@
         <v>2.32</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Z46" t="n">
         <v>1.75</v>
       </c>
       <c r="AA46" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AB46" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF46" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AH46" t="n">
         <v>5.6</v>
       </c>
       <c r="AI46" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK46" t="n">
         <v>800</v>
       </c>
       <c r="AL46" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AM46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO46" t="n">
         <v>30</v>
       </c>
       <c r="AP46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ46" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -722,10 +722,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
         <v>2.38</v>
@@ -749,7 +749,7 @@
         <v>2.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA2" t="n">
         <v>5.5</v>
@@ -761,7 +761,7 @@
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -776,10 +776,10 @@
         <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="n">
         <v>501</v>
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>17</v>
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K3" t="n">
         <v>3.2</v>
@@ -861,18 +861,18 @@
         <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -887,19 +887,19 @@
         <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>8.5</v>
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -926,16 +926,16 @@
         <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP3" t="n">
         <v>67</v>
@@ -982,22 +982,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1006,16 +1006,16 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>2.7</v>
@@ -1024,25 +1024,25 @@
         <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB4" t="n">
         <v>7</v>
@@ -1051,7 +1051,7 @@
         <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1066,10 +1066,10 @@
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="n">
         <v>101</v>
@@ -1078,19 +1078,19 @@
         <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
         <v>4.6</v>
@@ -1131,34 +1131,34 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.75</v>
-      </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1167,16 +1167,16 @@
         <v>1.78</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
         <v>1.67</v>
@@ -1194,28 +1194,28 @@
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH5" t="n">
         <v>5.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>81</v>
@@ -1224,7 +1224,7 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM5" t="n">
         <v>13</v>
@@ -1242,10 +1242,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
@@ -1298,10 +1298,10 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.8</v>
@@ -1322,16 +1322,16 @@
         <v>1.29</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="n">
         <v>2.63</v>
@@ -1394,7 +1394,7 @@
         <v>6.6</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="7">
@@ -1429,16 +1429,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
@@ -1450,7 +1450,7 @@
         <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.73</v>
@@ -1459,10 +1459,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>3.5</v>
@@ -1489,19 +1489,19 @@
         <v>1.44</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1522,10 +1522,10 @@
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1537,10 +1537,10 @@
         <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AS7" t="n">
         <v>1.12</v>
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
         <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1596,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1608,16 +1608,16 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
         <v>4.5</v>
@@ -1632,10 +1632,10 @@
         <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA8" t="n">
         <v>5</v>
@@ -1656,13 +1656,13 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1671,7 +1671,7 @@
         <v>451</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1680,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP8" t="n">
         <v>51</v>
@@ -1739,7 +1739,7 @@
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
         <v>4.75</v>
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
@@ -2621,7 +2621,7 @@
         <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
         <v>2.75</v>
@@ -2633,25 +2633,25 @@
         <v>1.91</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
@@ -2669,7 +2669,7 @@
         <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN15" t="n">
         <v>12</v>
@@ -2746,10 +2746,10 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
         <v>1.49</v>
@@ -2758,10 +2758,10 @@
         <v>2.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
         <v>3.4</v>
@@ -2770,7 +2770,7 @@
         <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
         <v>2.75</v>
@@ -2919,7 +2919,7 @@
         <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
         <v>2.2</v>
@@ -3068,7 +3068,7 @@
         <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X18" t="n">
         <v>2.2</v>
@@ -3354,7 +3354,7 @@
         <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
         <v>3.25</v>
@@ -3906,10 +3906,10 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T24" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U24" t="n">
         <v>3.4</v>
@@ -3975,7 +3975,7 @@
         <v>67</v>
       </c>
       <c r="AP24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ24" t="n">
         <v>51</v>
@@ -4036,7 +4036,7 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4047,16 +4047,16 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
         <v>1.44</v>
@@ -4065,10 +4065,10 @@
         <v>2.63</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA25" t="n">
         <v>7.5</v>
@@ -4468,10 +4468,10 @@
         <v>2.4</v>
       </c>
       <c r="U28" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
         <v>1.29</v>
@@ -4537,10 +4537,10 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="29">
@@ -4578,13 +4578,13 @@
         <v>1.42</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -4625,10 +4625,10 @@
         <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA29" t="n">
         <v>17</v>
@@ -4637,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>13</v>
@@ -4661,10 +4661,10 @@
         <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM29" t="n">
         <v>41</v>
@@ -4676,7 +4676,7 @@
         <v>67</v>
       </c>
       <c r="AP29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ29" t="n">
         <v>29</v>
@@ -4716,16 +4716,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
         <v>2.25</v>
@@ -4760,10 +4760,10 @@
         <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y30" t="n">
         <v>1.62</v>
@@ -4778,7 +4778,7 @@
         <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
         <v>34</v>
@@ -4814,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
         <v>17</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4893,10 +4893,10 @@
         <v>2.32</v>
       </c>
       <c r="S31" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U31" t="n">
         <v>3.75</v>
@@ -4911,25 +4911,25 @@
         <v>2.63</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -4950,10 +4950,10 @@
         <v>251</v>
       </c>
       <c r="AL31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN31" t="n">
         <v>11</v>
@@ -4971,7 +4971,7 @@
         <v>3.15</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="32">
@@ -5288,16 +5288,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J34" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>1.95</v>
@@ -5318,10 +5318,10 @@
         <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S34" t="n">
         <v>2.4</v>
@@ -5342,22 +5342,22 @@
         <v>2.38</v>
       </c>
       <c r="Y34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC34" t="n">
         <v>10</v>
       </c>
       <c r="AD34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
         <v>21</v>
@@ -5378,7 +5378,7 @@
         <v>67</v>
       </c>
       <c r="AK34" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL34" t="n">
         <v>8</v>
@@ -5387,13 +5387,13 @@
         <v>15</v>
       </c>
       <c r="AN34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP34" t="n">
         <v>34</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>29</v>
       </c>
       <c r="AQ34" t="n">
         <v>41</v>
@@ -5997,22 +5997,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -6021,18 +6021,18 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U39" t="n">
         <v>3.25</v>
@@ -6047,13 +6047,13 @@
         <v>2.75</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z39" t="n">
         <v>2</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB39" t="n">
         <v>9.5</v>
@@ -6065,13 +6065,13 @@
         <v>17</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
         <v>26</v>
       </c>
       <c r="AG39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
         <v>6.5</v>
@@ -6086,10 +6086,10 @@
         <v>201</v>
       </c>
       <c r="AL39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN39" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -1298,16 +1298,16 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
@@ -1316,22 +1316,22 @@
         <v>1.78</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y6" t="n">
         <v>2.63</v>
@@ -1391,10 +1391,10 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7">
@@ -1435,13 +1435,13 @@
         <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L7" t="n">
         <v>4.75</v>
@@ -1489,7 +1489,7 @@
         <v>1.44</v>
       </c>
       <c r="AA7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB7" t="n">
         <v>9</v>
@@ -1498,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>29</v>
@@ -1522,13 +1522,13 @@
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -1537,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
         <v>6.6</v>
@@ -1581,7 +1581,7 @@
         <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>6.5</v>
@@ -1596,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1608,34 +1608,34 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z8" t="n">
         <v>1.53</v>
-      </c>
-      <c r="U8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.5</v>
       </c>
       <c r="AA8" t="n">
         <v>5</v>
@@ -1647,22 +1647,22 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH8" t="n">
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1689,10 +1689,10 @@
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="9">
@@ -2031,10 +2031,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2055,10 +2055,10 @@
         <v>1.36</v>
       </c>
       <c r="U11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
         <v>1.67</v>
@@ -2576,13 +2576,13 @@
         <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -2597,46 +2597,46 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.83</v>
       </c>
-      <c r="U15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Z15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>9.5</v>
@@ -2651,7 +2651,7 @@
         <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
@@ -2666,7 +2666,7 @@
         <v>251</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM15" t="n">
         <v>15</v>
@@ -2684,10 +2684,10 @@
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16">
@@ -2746,10 +2746,10 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
         <v>1.49</v>
@@ -2758,10 +2758,10 @@
         <v>2.6</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
         <v>3.4</v>
@@ -2770,7 +2770,7 @@
         <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
         <v>2.75</v>
@@ -2871,13 +2871,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2889,16 +2889,16 @@
         <v>3.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
         <v>1.98</v>
@@ -2907,34 +2907,34 @@
         <v>1.88</v>
       </c>
       <c r="S17" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA17" t="n">
         <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>13</v>
@@ -2946,7 +2946,7 @@
         <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
         <v>5.5</v>
@@ -2955,7 +2955,7 @@
         <v>5.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>81</v>
@@ -2967,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
         <v>11</v>
@@ -2982,10 +2982,10 @@
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="18">
@@ -3068,7 +3068,7 @@
         <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
         <v>2.2</v>
@@ -3083,7 +3083,7 @@
         <v>5.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
@@ -3310,28 +3310,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -3354,28 +3354,28 @@
         <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA20" t="n">
         <v>7.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
         <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -3390,13 +3390,13 @@
         <v>7.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -3405,7 +3405,7 @@
         <v>26</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
         <v>51</v>
@@ -5327,7 +5327,7 @@
         <v>2.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U34" t="n">
         <v>4.5</v>
@@ -6988,30 +6988,30 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="H46" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I46" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P46" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -7022,55 +7022,55 @@
         <v>1.5</v>
       </c>
       <c r="U46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="V46" t="n">
         <v>1.18</v>
       </c>
       <c r="W46" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X46" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA46" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
         <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF46" t="n">
         <v>40</v>
       </c>
       <c r="AG46" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH46" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI46" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ46" t="n">
         <v>90</v>
       </c>
       <c r="AK46" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL46" t="n">
         <v>6.8</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -1429,16 +1429,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>1.73</v>
@@ -1489,7 +1489,7 @@
         <v>1.44</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="n">
         <v>9</v>
@@ -1498,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>29</v>
@@ -1522,13 +1522,13 @@
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -1578,91 +1578,91 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.57</v>
       </c>
-      <c r="U8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>1.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AA8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB8" t="n">
         <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH8" t="n">
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1671,7 +1671,7 @@
         <v>451</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1689,10 +1689,10 @@
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
@@ -1961,10 +1961,10 @@
         <v>101</v>
       </c>
       <c r="AL10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>21</v>
@@ -2013,28 +2013,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2055,10 +2055,10 @@
         <v>1.36</v>
       </c>
       <c r="U11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
         <v>1.67</v>
@@ -2073,10 +2073,10 @@
         <v>1.44</v>
       </c>
       <c r="AA11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
@@ -2097,19 +2097,19 @@
         <v>6.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="n">
         <v>17</v>
@@ -2118,10 +2118,10 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2722,46 +2722,46 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="S16" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
         <v>3.4</v>
@@ -2782,16 +2782,16 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
         <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>21</v>
@@ -2800,43 +2800,43 @@
         <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
         <v>201</v>
       </c>
       <c r="AL16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP16" t="n">
         <v>23</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="17">
@@ -3020,64 +3020,64 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L18" t="n">
         <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z18" t="n">
         <v>1.53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.57</v>
       </c>
       <c r="AA18" t="n">
         <v>5.5</v>
@@ -3086,7 +3086,7 @@
         <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>21</v>
@@ -3098,7 +3098,7 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
@@ -3113,7 +3113,7 @@
         <v>101</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
@@ -3125,16 +3125,16 @@
         <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="19">
@@ -3310,22 +3310,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L20" t="n">
         <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3369,13 +3369,13 @@
         <v>7.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -3390,22 +3390,22 @@
         <v>7.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
         <v>15</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>17</v>
       </c>
       <c r="AO20" t="n">
         <v>51</v>
@@ -6988,104 +6988,104 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="H46" t="n">
         <v>2.9</v>
       </c>
       <c r="I46" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="J46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L46" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.25</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P46" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="T46" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U46" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="V46" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W46" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X46" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="n">
         <v>7.2</v>
       </c>
-      <c r="AB46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AH46" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AI46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ46" t="n">
         <v>90</v>
       </c>
       <c r="AK46" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL46" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AM46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN46" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AP46" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ46" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-17.xlsx
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1444,13 +1444,13 @@
         <v>1.73</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.73</v>
@@ -1492,10 +1492,10 @@
         <v>5</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>23</v>
@@ -1537,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>6.6</v>
@@ -1596,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1608,10 +1608,10 @@
         <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>2.6</v>
@@ -1689,10 +1689,10 @@
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
@@ -2013,28 +2013,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2055,10 +2055,10 @@
         <v>1.36</v>
       </c>
       <c r="U11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
         <v>1.67</v>
@@ -2100,16 +2100,16 @@
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="n">
         <v>17</v>
@@ -2118,7 +2118,7 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ11" t="n">
         <v>67</v>
@@ -3038,16 +3038,16 @@
         <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18" t="n">
         <v>2.1</v>
@@ -3056,10 +3056,10 @@
         <v>1.78</v>
       </c>
       <c r="S18" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U18" t="n">
         <v>6</v>
